--- a/CR_Cost_Report/01_BOM/00_Cost_Report_Document/COST_Model.xlsx
+++ b/CR_Cost_Report/01_BOM/00_Cost_Report_Document/COST_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33645\Documents\02-Etudes\2019-ECL\Trans Semestres\01-EPSA\03-Trans Saisons\Git\ELIZ-2021\CR_Cost_Report\01_BOM\00_Cost_Report_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE97A9E-870C-45CB-A86E-16CA1043CC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C3365B-DD6F-4D76-91B1-EC6FBB215900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1151">
   <si>
     <t>Alu 7075 T6</t>
   </si>
@@ -3257,12 +3257,6 @@
   </si>
   <si>
     <t>Cost of Oxygen (€/mm²)</t>
-  </si>
-  <si>
-    <t>Cost of machining part (€/mm²)</t>
-  </si>
-  <si>
-    <t>Cost of oxygen (€/mm²)</t>
   </si>
   <si>
     <t>Cost of operator (€/h)</t>
@@ -3693,12 +3687,39 @@
   <si>
     <t>Cost of programing and measuring part Engineer (€)</t>
   </si>
+  <si>
+    <t>Thickeness (mm)</t>
+  </si>
+  <si>
+    <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>Width (mm)</t>
+  </si>
+  <si>
+    <t>Price (€ incl tax)</t>
+  </si>
+  <si>
+    <t>Volumic price (€/mm^3)</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Aluminium 2017A</t>
+  </si>
+  <si>
+    <t>Cost of machining part (€/mm)</t>
+  </si>
+  <si>
+    <t>Cost of oxygen (€/mm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="10">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -3708,9 +3729,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.0000000\ &quot;€&quot;_-;\-* #,##0.0000000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00000000\ &quot;€&quot;_-;\-* #,##0.00000000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00000000\ &quot;€&quot;_-;\-* #,##0.00000000\ &quot;€&quot;_-;_-* &quot;-&quot;????????\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0.0000000\ &quot;€&quot;_-;\-* #,##0.0000000\ &quot;€&quot;_-;_-* &quot;-&quot;???????\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0000000\ &quot;€&quot;_-;\-* #,##0.0000000\ &quot;€&quot;_-;_-* &quot;-&quot;???????\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -4957,7 +4976,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="710">
+  <cellXfs count="718">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -6199,426 +6218,6 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -6634,15 +6233,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6661,32 +6251,8 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6704,42 +6270,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6758,15 +6291,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -6779,10 +6303,521 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="19" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10413,8 +10448,8 @@
   </sheetPr>
   <dimension ref="A1:AN182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X33" zoomScale="123" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="AA41" sqref="AA41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" zoomScale="123" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10449,46 +10484,46 @@
     <col min="28" max="16384" width="11.42578125" style="202"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="203"/>
-      <c r="B2" s="510" t="s">
+      <c r="B2" s="550" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="511"/>
-      <c r="D2" s="511"/>
-      <c r="E2" s="512"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="552"/>
       <c r="F2" s="203"/>
-      <c r="G2" s="497" t="s">
+      <c r="G2" s="564" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="498"/>
-      <c r="I2" s="498"/>
-      <c r="J2" s="498"/>
-      <c r="K2" s="499"/>
+      <c r="H2" s="565"/>
+      <c r="I2" s="565"/>
+      <c r="J2" s="565"/>
+      <c r="K2" s="566"/>
       <c r="L2" s="203"/>
-      <c r="M2" s="500" t="s">
+      <c r="M2" s="567" t="s">
         <v>562</v>
       </c>
-      <c r="N2" s="502"/>
+      <c r="N2" s="569"/>
       <c r="O2" s="203"/>
-      <c r="P2" s="500" t="s">
+      <c r="P2" s="567" t="s">
         <v>559</v>
       </c>
-      <c r="Q2" s="501"/>
-      <c r="R2" s="501"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="501"/>
-      <c r="U2" s="502"/>
+      <c r="Q2" s="568"/>
+      <c r="R2" s="568"/>
+      <c r="S2" s="568"/>
+      <c r="T2" s="568"/>
+      <c r="U2" s="569"/>
       <c r="V2" s="203"/>
-      <c r="W2" s="500" t="s">
+      <c r="W2" s="567" t="s">
         <v>342</v>
       </c>
-      <c r="X2" s="501"/>
-      <c r="Y2" s="501"/>
-      <c r="Z2" s="502"/>
-    </row>
-    <row r="3" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="568"/>
+      <c r="Y2" s="568"/>
+      <c r="Z2" s="569"/>
+    </row>
+    <row r="3" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="203"/>
       <c r="B3" s="205" t="s">
         <v>24</v>
@@ -10545,16 +10580,16 @@
         <v>151</v>
       </c>
       <c r="V3" s="203"/>
-      <c r="W3" s="500" t="s">
+      <c r="W3" s="567" t="s">
         <v>429</v>
       </c>
-      <c r="X3" s="502"/>
-      <c r="Y3" s="500" t="s">
+      <c r="X3" s="569"/>
+      <c r="Y3" s="567" t="s">
         <v>563</v>
       </c>
-      <c r="Z3" s="502"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z3" s="569"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="217" t="s">
         <v>374</v>
@@ -10588,30 +10623,30 @@
         <v>50414.805194805187</v>
       </c>
       <c r="L4" s="203"/>
-      <c r="M4" s="503" t="s">
+      <c r="M4" s="561" t="s">
         <v>319</v>
       </c>
-      <c r="N4" s="504"/>
+      <c r="N4" s="563"/>
       <c r="O4" s="203"/>
-      <c r="P4" s="540" t="s">
+      <c r="P4" s="580" t="s">
         <v>319</v>
       </c>
-      <c r="Q4" s="541"/>
-      <c r="R4" s="541"/>
-      <c r="S4" s="541"/>
-      <c r="T4" s="541"/>
-      <c r="U4" s="542"/>
+      <c r="Q4" s="581"/>
+      <c r="R4" s="581"/>
+      <c r="S4" s="581"/>
+      <c r="T4" s="581"/>
+      <c r="U4" s="582"/>
       <c r="V4" s="203"/>
-      <c r="W4" s="503" t="s">
+      <c r="W4" s="561" t="s">
         <v>319</v>
       </c>
-      <c r="X4" s="518"/>
-      <c r="Y4" s="518"/>
-      <c r="Z4" s="504"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="562"/>
+      <c r="Y4" s="562"/>
+      <c r="Z4" s="563"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="203"/>
-      <c r="B5" s="531" t="s">
+      <c r="B5" s="572" t="s">
         <v>375</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -10621,7 +10656,7 @@
         <f>'Manpower &amp; time'!E16/'Manpower &amp; time'!C16</f>
         <v>43935</v>
       </c>
-      <c r="E5" s="528" t="s">
+      <c r="E5" s="592" t="s">
         <v>340</v>
       </c>
       <c r="F5" s="203"/>
@@ -10672,14 +10707,14 @@
         <v>571</v>
       </c>
       <c r="X5" s="295"/>
-      <c r="Y5" s="537" t="s">
+      <c r="Y5" s="578" t="s">
         <v>566</v>
       </c>
-      <c r="Z5" s="538"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z5" s="579"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="203"/>
-      <c r="B6" s="533"/>
+      <c r="B6" s="574"/>
       <c r="C6" s="220" t="s">
         <v>23</v>
       </c>
@@ -10687,7 +10722,7 @@
         <f>'Manpower &amp; time'!E15/'Manpower &amp; time'!C15</f>
         <v>36901.558441558438</v>
       </c>
-      <c r="E6" s="529"/>
+      <c r="E6" s="593"/>
       <c r="F6" s="203"/>
       <c r="G6" s="219"/>
       <c r="H6" s="220" t="s">
@@ -10745,9 +10780,9 @@
         <v>17815.099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="203"/>
-      <c r="B7" s="533"/>
+      <c r="B7" s="574"/>
       <c r="C7" s="220" t="s">
         <v>35</v>
       </c>
@@ -10755,7 +10790,7 @@
         <f>'Manpower &amp; time'!E17/'Manpower &amp; time'!C17</f>
         <v>50414.805194805187</v>
       </c>
-      <c r="E7" s="529"/>
+      <c r="E7" s="593"/>
       <c r="F7" s="203"/>
       <c r="G7" s="226"/>
       <c r="H7" s="227" t="s">
@@ -10812,9 +10847,9 @@
         <v>30.398298816626557</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="203"/>
-      <c r="B8" s="532"/>
+      <c r="B8" s="573"/>
       <c r="C8" s="220" t="s">
         <v>36</v>
       </c>
@@ -10822,9 +10857,9 @@
         <f>'Manpower &amp; time'!E18/'Manpower &amp; time'!C18</f>
         <v>59295.584415584402</v>
       </c>
-      <c r="E8" s="530"/>
+      <c r="E8" s="594"/>
       <c r="F8" s="203"/>
-      <c r="G8" s="513" t="s">
+      <c r="G8" s="553" t="s">
         <v>481</v>
       </c>
       <c r="H8" s="231" t="s">
@@ -10881,9 +10916,9 @@
         <v>52.082062016626558</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="203"/>
-      <c r="B9" s="534" t="s">
+      <c r="B9" s="575" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="212" t="s">
@@ -10896,7 +10931,7 @@
         <v>368</v>
       </c>
       <c r="F9" s="203"/>
-      <c r="G9" s="514"/>
+      <c r="G9" s="554"/>
       <c r="H9" s="235" t="s">
         <v>191</v>
       </c>
@@ -10941,18 +10976,18 @@
         <v>2116</v>
       </c>
       <c r="V9" s="203"/>
-      <c r="W9" s="520" t="s">
-        <v>1052</v>
-      </c>
-      <c r="X9" s="521"/>
-      <c r="Y9" s="526" t="s">
+      <c r="W9" s="585" t="s">
+        <v>1050</v>
+      </c>
+      <c r="X9" s="586"/>
+      <c r="Y9" s="583" t="s">
         <v>567</v>
       </c>
-      <c r="Z9" s="527"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="584"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="203"/>
-      <c r="B10" s="535"/>
+      <c r="B10" s="576"/>
       <c r="C10" s="220" t="s">
         <v>39</v>
       </c>
@@ -10964,7 +10999,7 @@
         <v>369</v>
       </c>
       <c r="F10" s="203"/>
-      <c r="G10" s="515"/>
+      <c r="G10" s="555"/>
       <c r="H10" s="239" t="s">
         <v>276</v>
       </c>
@@ -11004,8 +11039,8 @@
       <c r="T10" s="400"/>
       <c r="U10" s="294"/>
       <c r="V10" s="203"/>
-      <c r="W10" s="522"/>
-      <c r="X10" s="523"/>
+      <c r="W10" s="587"/>
+      <c r="X10" s="588"/>
       <c r="Y10" s="410" t="s">
         <v>195</v>
       </c>
@@ -11013,10 +11048,14 @@
         <f>('Manpower &amp; time'!H15+Summary!Z8)*Summary!N8/60</f>
         <v>1.2576612114328312E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA10" s="289">
+        <f>Z10*195730</f>
+        <v>24.616202891374805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="203"/>
-      <c r="B11" s="535"/>
+      <c r="B11" s="576"/>
       <c r="C11" s="220" t="s">
         <v>40</v>
       </c>
@@ -11027,7 +11066,7 @@
         <v>370</v>
       </c>
       <c r="F11" s="203"/>
-      <c r="G11" s="507" t="s">
+      <c r="G11" s="556" t="s">
         <v>445</v>
       </c>
       <c r="H11" s="220" t="s">
@@ -11067,8 +11106,8 @@
       <c r="T11" s="243"/>
       <c r="U11" s="382"/>
       <c r="V11" s="203"/>
-      <c r="W11" s="522"/>
-      <c r="X11" s="523"/>
+      <c r="W11" s="587"/>
+      <c r="X11" s="588"/>
       <c r="Y11" s="410" t="s">
         <v>317</v>
       </c>
@@ -11077,9 +11116,9 @@
         <v>0.30980270437470231</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="203"/>
-      <c r="B12" s="536"/>
+      <c r="B12" s="577"/>
       <c r="C12" s="227" t="s">
         <v>180</v>
       </c>
@@ -11090,7 +11129,7 @@
         <v>371</v>
       </c>
       <c r="F12" s="203"/>
-      <c r="G12" s="508"/>
+      <c r="G12" s="557"/>
       <c r="H12" s="220" t="s">
         <v>150</v>
       </c>
@@ -11106,30 +11145,30 @@
         <v>89.966666666666654</v>
       </c>
       <c r="L12" s="203"/>
-      <c r="M12" s="505" t="s">
+      <c r="M12" s="570" t="s">
         <v>1006</v>
       </c>
-      <c r="N12" s="506"/>
+      <c r="N12" s="571"/>
       <c r="O12" s="203"/>
-      <c r="P12" s="540" t="s">
+      <c r="P12" s="580" t="s">
         <v>1006</v>
       </c>
-      <c r="Q12" s="541"/>
-      <c r="R12" s="541"/>
-      <c r="S12" s="541"/>
-      <c r="T12" s="541"/>
-      <c r="U12" s="542"/>
+      <c r="Q12" s="581"/>
+      <c r="R12" s="581"/>
+      <c r="S12" s="581"/>
+      <c r="T12" s="581"/>
+      <c r="U12" s="582"/>
       <c r="V12" s="203"/>
-      <c r="W12" s="522"/>
-      <c r="X12" s="523"/>
-      <c r="Y12" s="526" t="s">
+      <c r="W12" s="587"/>
+      <c r="X12" s="588"/>
+      <c r="Y12" s="583" t="s">
         <v>568</v>
       </c>
-      <c r="Z12" s="527"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z12" s="584"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="203"/>
-      <c r="B13" s="531" t="s">
+      <c r="B13" s="572" t="s">
         <v>229</v>
       </c>
       <c r="C13" s="212" t="s">
@@ -11141,7 +11180,7 @@
       </c>
       <c r="E13" s="216"/>
       <c r="F13" s="203"/>
-      <c r="G13" s="508"/>
+      <c r="G13" s="557"/>
       <c r="H13" s="249" t="s">
         <v>443</v>
       </c>
@@ -11183,8 +11222,8 @@
         <v>142857.14285714287</v>
       </c>
       <c r="V13" s="203"/>
-      <c r="W13" s="522"/>
-      <c r="X13" s="523"/>
+      <c r="W13" s="587"/>
+      <c r="X13" s="588"/>
       <c r="Y13" s="410" t="s">
         <v>198</v>
       </c>
@@ -11192,10 +11231,14 @@
         <f>('Manpower &amp; time'!H15+K35)*N$9/60</f>
         <v>3.3056909578504621E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13" s="289">
+        <f>195730*Z13</f>
+        <v>6.4702289118007092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="203"/>
-      <c r="B14" s="533"/>
+      <c r="B14" s="574"/>
       <c r="C14" s="220" t="s">
         <v>111</v>
       </c>
@@ -11205,7 +11248,7 @@
       </c>
       <c r="E14" s="250"/>
       <c r="F14" s="203"/>
-      <c r="G14" s="508"/>
+      <c r="G14" s="557"/>
       <c r="H14" s="220" t="s">
         <v>442</v>
       </c>
@@ -11250,8 +11293,8 @@
         <v>10000</v>
       </c>
       <c r="V14" s="203"/>
-      <c r="W14" s="522"/>
-      <c r="X14" s="523"/>
+      <c r="W14" s="587"/>
+      <c r="X14" s="588"/>
       <c r="Y14" s="410" t="s">
         <v>196</v>
       </c>
@@ -11260,19 +11303,19 @@
         <v>4.6096697094479797E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="203"/>
-      <c r="B15" s="532"/>
+      <c r="B15" s="573"/>
       <c r="C15" s="227" t="s">
         <v>505</v>
       </c>
       <c r="D15" s="228">
-        <f>Energies!D9</f>
-        <v>0</v>
+        <f>Energies!F7</f>
+        <v>3.3239999999999998</v>
       </c>
       <c r="E15" s="244"/>
       <c r="F15" s="203"/>
-      <c r="G15" s="508"/>
+      <c r="G15" s="557"/>
       <c r="H15" s="220" t="s">
         <v>29</v>
       </c>
@@ -11314,8 +11357,8 @@
         <v>1500</v>
       </c>
       <c r="V15" s="203"/>
-      <c r="W15" s="522"/>
-      <c r="X15" s="523"/>
+      <c r="W15" s="587"/>
+      <c r="X15" s="588"/>
       <c r="Y15" s="410" t="s">
         <v>197</v>
       </c>
@@ -11324,9 +11367,9 @@
         <v>5.4498249612281913E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="203"/>
-      <c r="B16" s="531" t="s">
+      <c r="B16" s="572" t="s">
         <v>230</v>
       </c>
       <c r="C16" s="212" t="s">
@@ -11339,7 +11382,7 @@
         <v>377</v>
       </c>
       <c r="F16" s="203"/>
-      <c r="G16" s="508"/>
+      <c r="G16" s="557"/>
       <c r="H16" s="251" t="s">
         <v>266</v>
       </c>
@@ -11381,8 +11424,8 @@
         <v>1500</v>
       </c>
       <c r="V16" s="203"/>
-      <c r="W16" s="522"/>
-      <c r="X16" s="523"/>
+      <c r="W16" s="587"/>
+      <c r="X16" s="588"/>
       <c r="Y16" s="410" t="s">
         <v>236</v>
       </c>
@@ -11393,7 +11436,7 @@
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="203"/>
-      <c r="B17" s="532"/>
+      <c r="B17" s="573"/>
       <c r="C17" s="227" t="s">
         <v>372</v>
       </c>
@@ -11404,7 +11447,7 @@
         <v>376</v>
       </c>
       <c r="F17" s="203"/>
-      <c r="G17" s="508"/>
+      <c r="G17" s="557"/>
       <c r="H17" s="253" t="s">
         <v>30</v>
       </c>
@@ -11442,8 +11485,8 @@
       <c r="T17" s="224"/>
       <c r="U17" s="233"/>
       <c r="V17" s="203"/>
-      <c r="W17" s="522"/>
-      <c r="X17" s="523"/>
+      <c r="W17" s="587"/>
+      <c r="X17" s="588"/>
       <c r="Y17" s="410" t="s">
         <v>237</v>
       </c>
@@ -11454,7 +11497,7 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="203"/>
-      <c r="G18" s="509"/>
+      <c r="G18" s="558"/>
       <c r="H18" s="227" t="s">
         <v>231</v>
       </c>
@@ -11477,17 +11520,17 @@
         <v>373</v>
       </c>
       <c r="O18" s="203"/>
-      <c r="P18" s="503" t="s">
+      <c r="P18" s="561" t="s">
         <v>1017</v>
       </c>
-      <c r="Q18" s="518"/>
-      <c r="R18" s="518"/>
-      <c r="S18" s="518"/>
-      <c r="T18" s="518"/>
-      <c r="U18" s="504"/>
+      <c r="Q18" s="562"/>
+      <c r="R18" s="562"/>
+      <c r="S18" s="562"/>
+      <c r="T18" s="562"/>
+      <c r="U18" s="563"/>
       <c r="V18" s="203"/>
-      <c r="W18" s="522"/>
-      <c r="X18" s="523"/>
+      <c r="W18" s="587"/>
+      <c r="X18" s="588"/>
       <c r="Y18" s="410" t="s">
         <v>238</v>
       </c>
@@ -11498,7 +11541,7 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="203"/>
-      <c r="G19" s="507" t="s">
+      <c r="G19" s="556" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="220" t="s">
@@ -11516,10 +11559,10 @@
         <v>2291.7647999999999</v>
       </c>
       <c r="L19" s="203"/>
-      <c r="M19" s="516" t="s">
+      <c r="M19" s="559" t="s">
         <v>1017</v>
       </c>
-      <c r="N19" s="517"/>
+      <c r="N19" s="560"/>
       <c r="O19" s="203"/>
       <c r="P19" s="379" t="s">
         <v>18</v>
@@ -11540,8 +11583,8 @@
         <v>12072.639947002319</v>
       </c>
       <c r="V19" s="203"/>
-      <c r="W19" s="524"/>
-      <c r="X19" s="525"/>
+      <c r="W19" s="590"/>
+      <c r="X19" s="591"/>
       <c r="Y19" s="410" t="s">
         <v>576</v>
       </c>
@@ -11552,7 +11595,7 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F20" s="203"/>
-      <c r="G20" s="508"/>
+      <c r="G20" s="557"/>
       <c r="H20" s="220" t="s">
         <v>247</v>
       </c>
@@ -11596,16 +11639,16 @@
         <v>6036.3199735011594</v>
       </c>
       <c r="V20" s="203"/>
-      <c r="W20" s="503" t="s">
+      <c r="W20" s="561" t="s">
         <v>1006</v>
       </c>
-      <c r="X20" s="518"/>
-      <c r="Y20" s="518"/>
-      <c r="Z20" s="504"/>
+      <c r="X20" s="562"/>
+      <c r="Y20" s="562"/>
+      <c r="Z20" s="563"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="203"/>
-      <c r="G21" s="508"/>
+      <c r="G21" s="557"/>
       <c r="H21" s="220" t="s">
         <v>502</v>
       </c>
@@ -11648,14 +11691,14 @@
         <v>1009</v>
       </c>
       <c r="X21" s="295"/>
-      <c r="Y21" s="537" t="s">
+      <c r="Y21" s="578" t="s">
         <v>566</v>
       </c>
-      <c r="Z21" s="538"/>
+      <c r="Z21" s="579"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="203"/>
-      <c r="G22" s="508"/>
+      <c r="G22" s="557"/>
       <c r="H22" s="249" t="s">
         <v>246</v>
       </c>
@@ -11678,14 +11721,14 @@
         <v>5</v>
       </c>
       <c r="O22" s="203"/>
-      <c r="P22" s="503" t="s">
+      <c r="P22" s="561" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="518"/>
-      <c r="R22" s="518"/>
-      <c r="S22" s="518"/>
-      <c r="T22" s="518"/>
-      <c r="U22" s="504"/>
+      <c r="Q22" s="562"/>
+      <c r="R22" s="562"/>
+      <c r="S22" s="562"/>
+      <c r="T22" s="562"/>
+      <c r="U22" s="563"/>
       <c r="V22" s="203"/>
       <c r="W22" s="283" t="s">
         <v>572</v>
@@ -11703,7 +11746,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F23" s="203"/>
-      <c r="G23" s="508"/>
+      <c r="G23" s="557"/>
       <c r="H23" s="220" t="s">
         <v>504</v>
       </c>
@@ -11762,7 +11805,7 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" s="203"/>
-      <c r="G24" s="509"/>
+      <c r="G24" s="558"/>
       <c r="H24" s="258" t="s">
         <v>324</v>
       </c>
@@ -11860,14 +11903,14 @@
         <v>522</v>
       </c>
       <c r="V25" s="203"/>
-      <c r="W25" s="520" t="s">
-        <v>1053</v>
-      </c>
-      <c r="X25" s="521"/>
-      <c r="Y25" s="526" t="s">
+      <c r="W25" s="585" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X25" s="586"/>
+      <c r="Y25" s="583" t="s">
         <v>567</v>
       </c>
-      <c r="Z25" s="527"/>
+      <c r="Z25" s="584"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F26" s="203"/>
@@ -11896,7 +11939,7 @@
       </c>
       <c r="O26" s="203"/>
       <c r="P26" s="251" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="Q26" s="224" t="s">
         <v>156</v>
@@ -11914,8 +11957,8 @@
         <v>363.12</v>
       </c>
       <c r="V26" s="203"/>
-      <c r="W26" s="522"/>
-      <c r="X26" s="523"/>
+      <c r="W26" s="587"/>
+      <c r="X26" s="588"/>
       <c r="Y26" s="410" t="s">
         <v>1012</v>
       </c>
@@ -11954,7 +11997,7 @@
       </c>
       <c r="O27" s="203"/>
       <c r="P27" s="251" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="Q27" s="224" t="s">
         <v>156</v>
@@ -11972,8 +12015,8 @@
         <v>59.624000000000002</v>
       </c>
       <c r="V27" s="203"/>
-      <c r="W27" s="522"/>
-      <c r="X27" s="523"/>
+      <c r="W27" s="587"/>
+      <c r="X27" s="588"/>
       <c r="Y27" s="410" t="s">
         <v>1011</v>
       </c>
@@ -12004,10 +12047,10 @@
         <v>4833.4809999999998</v>
       </c>
       <c r="L28" s="203"/>
-      <c r="M28" s="516" t="s">
+      <c r="M28" s="559" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="517"/>
+      <c r="N28" s="560"/>
       <c r="O28" s="203"/>
       <c r="P28" s="251" t="s">
         <v>19</v>
@@ -12030,8 +12073,8 @@
         <v>533.81350000000009</v>
       </c>
       <c r="V28" s="203"/>
-      <c r="W28" s="522"/>
-      <c r="X28" s="523"/>
+      <c r="W28" s="587"/>
+      <c r="X28" s="588"/>
       <c r="Y28" s="410" t="s">
         <v>1013</v>
       </c>
@@ -12081,12 +12124,12 @@
       <c r="T29" s="224"/>
       <c r="U29" s="233"/>
       <c r="V29" s="203"/>
-      <c r="W29" s="522"/>
-      <c r="X29" s="523"/>
-      <c r="Y29" s="526" t="s">
+      <c r="W29" s="587"/>
+      <c r="X29" s="588"/>
+      <c r="Y29" s="583" t="s">
         <v>568</v>
       </c>
-      <c r="Z29" s="527"/>
+      <c r="Z29" s="584"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F30" s="203"/>
@@ -12115,13 +12158,13 @@
       </c>
       <c r="O30" s="203"/>
       <c r="P30" s="251" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="Q30" s="280" t="s">
         <v>157</v>
       </c>
       <c r="R30" s="280" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="S30" s="221">
         <f>Welding!D27</f>
@@ -12130,8 +12173,8 @@
       <c r="T30" s="224"/>
       <c r="U30" s="233"/>
       <c r="V30" s="203"/>
-      <c r="W30" s="522"/>
-      <c r="X30" s="523"/>
+      <c r="W30" s="587"/>
+      <c r="X30" s="588"/>
       <c r="Y30" s="410" t="s">
         <v>1014</v>
       </c>
@@ -12172,7 +12215,7 @@
         <v>157</v>
       </c>
       <c r="R31" s="243" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="S31" s="228">
         <f>Welding!D20</f>
@@ -12181,8 +12224,8 @@
       <c r="T31" s="243"/>
       <c r="U31" s="244"/>
       <c r="V31" s="203"/>
-      <c r="W31" s="522"/>
-      <c r="X31" s="523"/>
+      <c r="W31" s="587"/>
+      <c r="X31" s="588"/>
       <c r="Y31" s="410" t="s">
         <v>1015</v>
       </c>
@@ -12201,17 +12244,17 @@
         <v>140.43083213990764</v>
       </c>
       <c r="O32" s="203"/>
-      <c r="P32" s="503" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Q32" s="518"/>
-      <c r="R32" s="518"/>
-      <c r="S32" s="518"/>
-      <c r="T32" s="518"/>
-      <c r="U32" s="504"/>
+      <c r="P32" s="561" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q32" s="562"/>
+      <c r="R32" s="562"/>
+      <c r="S32" s="562"/>
+      <c r="T32" s="562"/>
+      <c r="U32" s="563"/>
       <c r="V32" s="203"/>
-      <c r="W32" s="522"/>
-      <c r="X32" s="523"/>
+      <c r="W32" s="587"/>
+      <c r="X32" s="588"/>
       <c r="Y32" s="410" t="s">
         <v>1016</v>
       </c>
@@ -12256,8 +12299,8 @@
         <v>1800</v>
       </c>
       <c r="V33" s="203"/>
-      <c r="W33" s="522"/>
-      <c r="X33" s="523"/>
+      <c r="W33" s="587"/>
+      <c r="X33" s="588"/>
       <c r="Y33" s="410" t="s">
         <v>1018</v>
       </c>
@@ -12305,12 +12348,12 @@
         <v>1200</v>
       </c>
       <c r="V34" s="203"/>
-      <c r="W34" s="503" t="s">
+      <c r="W34" s="561" t="s">
         <v>1017</v>
       </c>
-      <c r="X34" s="518"/>
-      <c r="Y34" s="518"/>
-      <c r="Z34" s="504"/>
+      <c r="X34" s="562"/>
+      <c r="Y34" s="562"/>
+      <c r="Z34" s="563"/>
     </row>
     <row r="35" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F35" s="203"/>
@@ -12355,10 +12398,10 @@
         <v>1009</v>
       </c>
       <c r="X35" s="295"/>
-      <c r="Y35" s="537" t="s">
+      <c r="Y35" s="578" t="s">
         <v>566</v>
       </c>
-      <c r="Z35" s="538"/>
+      <c r="Z35" s="579"/>
     </row>
     <row r="36" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F36" s="203"/>
@@ -12523,35 +12566,35 @@
         <v>37.564513408669242</v>
       </c>
       <c r="L39" s="203"/>
-      <c r="M39" s="640" t="s">
+      <c r="M39" s="500" t="s">
         <v>179</v>
       </c>
-      <c r="N39" s="641">
+      <c r="N39" s="501">
         <v>10</v>
       </c>
       <c r="O39" s="203"/>
-      <c r="P39" s="516" t="s">
-        <v>1066</v>
-      </c>
-      <c r="Q39" s="642"/>
-      <c r="R39" s="642"/>
-      <c r="S39" s="642"/>
-      <c r="T39" s="642"/>
-      <c r="U39" s="517"/>
+      <c r="P39" s="559" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q39" s="596"/>
+      <c r="R39" s="596"/>
+      <c r="S39" s="596"/>
+      <c r="T39" s="596"/>
+      <c r="U39" s="560"/>
       <c r="V39" s="203"/>
-      <c r="W39" s="520" t="s">
-        <v>1054</v>
-      </c>
-      <c r="X39" s="521"/>
-      <c r="Y39" s="526" t="s">
+      <c r="W39" s="585" t="s">
+        <v>1052</v>
+      </c>
+      <c r="X39" s="586"/>
+      <c r="Y39" s="583" t="s">
         <v>567</v>
       </c>
-      <c r="Z39" s="527"/>
+      <c r="Z39" s="584"/>
     </row>
     <row r="40" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L40" s="203"/>
       <c r="M40" s="462" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="N40" s="463"/>
       <c r="O40" s="203"/>
@@ -12574,18 +12617,18 @@
         <v>30000</v>
       </c>
       <c r="V40" s="203"/>
-      <c r="W40" s="522"/>
-      <c r="X40" s="523"/>
+      <c r="W40" s="587"/>
+      <c r="X40" s="588"/>
       <c r="Y40" s="410" t="s">
-        <v>1043</v>
+        <v>1149</v>
       </c>
       <c r="Z40" s="286">
         <f>('Manpower &amp; time'!H15+Summary!Z38)*N23/60</f>
         <v>1.2895992312292283E-4</v>
       </c>
       <c r="AA40" s="289">
-        <f>Z40*360*360</f>
-        <v>16.713206036730799</v>
+        <f>Z40*5779</f>
+        <v>0.74525939572737099</v>
       </c>
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.25">
@@ -12616,26 +12659,26 @@
         <v>3081</v>
       </c>
       <c r="V41" s="203"/>
-      <c r="W41" s="522"/>
-      <c r="X41" s="523"/>
+      <c r="W41" s="587"/>
+      <c r="X41" s="588"/>
       <c r="Y41" s="410" t="s">
-        <v>1044</v>
+        <v>1150</v>
       </c>
       <c r="Z41" s="471">
         <f>N26</f>
         <v>3.3407296895530032E-5</v>
       </c>
-      <c r="AA41" s="709">
-        <f>360*360*Z41</f>
-        <v>4.3295856776606918</v>
+      <c r="AA41" s="542">
+        <f>5779*Z41</f>
+        <v>0.19306076875926806</v>
       </c>
     </row>
     <row r="42" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L42" s="203"/>
-      <c r="M42" s="640" t="s">
+      <c r="M42" s="500" t="s">
         <v>165</v>
       </c>
-      <c r="N42" s="645">
+      <c r="N42" s="502">
         <f>'Manpower &amp; time'!G33</f>
         <v>0.45</v>
       </c>
@@ -12659,8 +12702,8 @@
         <v>1398</v>
       </c>
       <c r="V42" s="203"/>
-      <c r="W42" s="522"/>
-      <c r="X42" s="523"/>
+      <c r="W42" s="587"/>
+      <c r="X42" s="588"/>
       <c r="Y42" s="410" t="s">
         <v>1013</v>
       </c>
@@ -12672,7 +12715,7 @@
     <row r="43" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O43" s="203"/>
       <c r="P43" s="251" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="Q43" s="224" t="s">
         <v>156</v>
@@ -12690,12 +12733,12 @@
         <v>1068.8400000000001</v>
       </c>
       <c r="V43" s="203"/>
-      <c r="W43" s="522"/>
-      <c r="X43" s="523"/>
-      <c r="Y43" s="526" t="s">
+      <c r="W43" s="587"/>
+      <c r="X43" s="588"/>
+      <c r="Y43" s="583" t="s">
         <v>568</v>
       </c>
-      <c r="Z43" s="527"/>
+      <c r="Z43" s="584"/>
     </row>
     <row r="44" spans="3:27" x14ac:dyDescent="0.25">
       <c r="O44" s="203"/>
@@ -12706,7 +12749,7 @@
         <v>156</v>
       </c>
       <c r="R44" s="224" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="S44" s="236">
         <f>0.05*(S40+S41)</f>
@@ -12720,10 +12763,10 @@
         <v>16540.5</v>
       </c>
       <c r="V44" s="203"/>
-      <c r="W44" s="522"/>
-      <c r="X44" s="523"/>
+      <c r="W44" s="587"/>
+      <c r="X44" s="588"/>
       <c r="Y44" s="410" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="Z44" s="286">
         <f>('Manpower &amp; time'!H15+$K$35)*$N$24/60</f>
@@ -12749,10 +12792,10 @@
       <c r="T45" s="224"/>
       <c r="U45" s="233"/>
       <c r="V45" s="203"/>
-      <c r="W45" s="522"/>
-      <c r="X45" s="523"/>
+      <c r="W45" s="587"/>
+      <c r="X45" s="588"/>
       <c r="Y45" s="410" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="Z45" s="286">
         <f>('Manpower &amp; time'!H17+$K$35)*$N$24/60</f>
@@ -12761,9 +12804,9 @@
     </row>
     <row r="46" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C46" s="38"/>
-      <c r="M46" s="646"/>
-      <c r="N46" s="646"/>
-      <c r="O46" s="646"/>
+      <c r="M46" s="503"/>
+      <c r="N46" s="503"/>
+      <c r="O46" s="503"/>
       <c r="P46" s="17" t="s">
         <v>479</v>
       </c>
@@ -12771,7 +12814,7 @@
         <v>157</v>
       </c>
       <c r="R46" s="224" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="S46" s="221">
         <f>'Body Manufacturing'!E24</f>
@@ -12780,10 +12823,10 @@
       <c r="T46" s="224"/>
       <c r="U46" s="233"/>
       <c r="V46" s="203"/>
-      <c r="W46" s="522"/>
-      <c r="X46" s="523"/>
+      <c r="W46" s="587"/>
+      <c r="X46" s="588"/>
       <c r="Y46" s="410" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="Z46" s="286">
         <f>('Manpower &amp; time'!H18+$K$35)*$N$24/60</f>
@@ -12792,9 +12835,9 @@
     </row>
     <row r="47" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38"/>
-      <c r="M47" s="646"/>
-      <c r="N47" s="646"/>
-      <c r="O47" s="647"/>
+      <c r="M47" s="503"/>
+      <c r="N47" s="503"/>
+      <c r="O47" s="504"/>
       <c r="P47" s="19" t="s">
         <v>480</v>
       </c>
@@ -12802,7 +12845,7 @@
         <v>157</v>
       </c>
       <c r="R47" s="243" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="S47" s="228" t="e">
         <f>'Body Manufacturing'!#REF!</f>
@@ -12811,39 +12854,39 @@
       <c r="T47" s="243"/>
       <c r="U47" s="244"/>
       <c r="V47" s="203"/>
-      <c r="W47" s="524"/>
-      <c r="X47" s="525"/>
+      <c r="W47" s="590"/>
+      <c r="X47" s="591"/>
       <c r="Y47" s="472" t="s">
         <v>1018</v>
       </c>
-      <c r="Z47" s="405">
-        <f>('Manpower &amp; time'!H15+Z37)*N27/60</f>
-        <v>7.4742976131077912</v>
+      <c r="Z47" s="549">
+        <f>('Manpower &amp; time'!H15+Z37)*(N27+N22)/60</f>
+        <v>12.145733621300161</v>
       </c>
     </row>
     <row r="48" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38"/>
-      <c r="M48" s="646"/>
-      <c r="N48" s="646"/>
-      <c r="O48" s="646"/>
+      <c r="M48" s="503"/>
+      <c r="N48" s="503"/>
+      <c r="O48" s="503"/>
       <c r="V48" s="203"/>
-      <c r="W48" s="503" t="s">
-        <v>1057</v>
-      </c>
-      <c r="X48" s="518"/>
-      <c r="Y48" s="518"/>
-      <c r="Z48" s="504"/>
+      <c r="W48" s="561" t="s">
+        <v>1055</v>
+      </c>
+      <c r="X48" s="562"/>
+      <c r="Y48" s="562"/>
+      <c r="Z48" s="563"/>
     </row>
     <row r="49" spans="3:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38"/>
       <c r="M49" s="466"/>
-      <c r="N49" s="648"/>
-      <c r="O49" s="646"/>
+      <c r="N49" s="505"/>
+      <c r="O49" s="503"/>
       <c r="V49" s="203"/>
-      <c r="W49" s="520" t="s">
-        <v>1084</v>
-      </c>
-      <c r="X49" s="521"/>
+      <c r="W49" s="585" t="s">
+        <v>1082</v>
+      </c>
+      <c r="X49" s="586"/>
       <c r="Y49" s="490" t="s">
         <v>207</v>
       </c>
@@ -12855,11 +12898,11 @@
     <row r="50" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C50" s="38"/>
       <c r="M50" s="466"/>
-      <c r="N50" s="649"/>
-      <c r="O50" s="646"/>
+      <c r="N50" s="506"/>
+      <c r="O50" s="503"/>
       <c r="V50" s="203"/>
-      <c r="W50" s="522"/>
-      <c r="X50" s="523"/>
+      <c r="W50" s="587"/>
+      <c r="X50" s="588"/>
       <c r="Y50" s="491" t="s">
         <v>208</v>
       </c>
@@ -12870,11 +12913,11 @@
     </row>
     <row r="51" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M51" s="466"/>
-      <c r="N51" s="648"/>
-      <c r="O51" s="646"/>
+      <c r="N51" s="505"/>
+      <c r="O51" s="503"/>
       <c r="V51" s="203"/>
-      <c r="W51" s="522"/>
-      <c r="X51" s="523"/>
+      <c r="W51" s="587"/>
+      <c r="X51" s="588"/>
       <c r="Y51" s="492" t="s">
         <v>565</v>
       </c>
@@ -12888,26 +12931,26 @@
       </c>
     </row>
     <row r="52" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M52" s="646"/>
-      <c r="N52" s="646"/>
-      <c r="O52" s="646"/>
+      <c r="M52" s="503"/>
+      <c r="N52" s="503"/>
+      <c r="O52" s="503"/>
       <c r="V52" s="203"/>
-      <c r="W52" s="522"/>
-      <c r="X52" s="523"/>
-      <c r="Y52" s="539" t="s">
+      <c r="W52" s="587"/>
+      <c r="X52" s="588"/>
+      <c r="Y52" s="595" t="s">
         <v>567</v>
       </c>
-      <c r="Z52" s="527"/>
+      <c r="Z52" s="584"/>
     </row>
     <row r="53" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="M53" s="646"/>
-      <c r="N53" s="646"/>
-      <c r="O53" s="646"/>
+      <c r="M53" s="503"/>
+      <c r="N53" s="503"/>
+      <c r="O53" s="503"/>
       <c r="V53" s="203"/>
-      <c r="W53" s="522"/>
-      <c r="X53" s="523"/>
+      <c r="W53" s="587"/>
+      <c r="X53" s="588"/>
       <c r="Y53" s="491" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="Z53" s="495">
         <f>S30</f>
@@ -12919,16 +12962,16 @@
       </c>
     </row>
     <row r="54" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="M54" s="646"/>
-      <c r="N54" s="646"/>
-      <c r="O54" s="646"/>
+      <c r="M54" s="503"/>
+      <c r="N54" s="503"/>
+      <c r="O54" s="503"/>
       <c r="V54" s="203"/>
-      <c r="W54" s="522"/>
-      <c r="X54" s="523"/>
+      <c r="W54" s="587"/>
+      <c r="X54" s="588"/>
       <c r="Y54" s="491" t="s">
-        <v>1083</v>
-      </c>
-      <c r="Z54" s="638">
+        <v>1081</v>
+      </c>
+      <c r="Z54" s="498">
         <f>S31</f>
         <v>14.354066985645932</v>
       </c>
@@ -12939,12 +12982,12 @@
     </row>
     <row r="55" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V55" s="203"/>
-      <c r="W55" s="522"/>
-      <c r="X55" s="523"/>
+      <c r="W55" s="587"/>
+      <c r="X55" s="588"/>
       <c r="Y55" s="491" t="s">
-        <v>1056</v>
-      </c>
-      <c r="Z55" s="638">
+        <v>1054</v>
+      </c>
+      <c r="Z55" s="498">
         <f>Welding!D32</f>
         <v>6680.0126702565722</v>
       </c>
@@ -12952,20 +12995,20 @@
     </row>
     <row r="56" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V56" s="203"/>
-      <c r="W56" s="503" t="s">
-        <v>1058</v>
-      </c>
-      <c r="X56" s="518"/>
-      <c r="Y56" s="518"/>
-      <c r="Z56" s="504"/>
+      <c r="W56" s="561" t="s">
+        <v>1056</v>
+      </c>
+      <c r="X56" s="562"/>
+      <c r="Y56" s="562"/>
+      <c r="Z56" s="563"/>
     </row>
     <row r="57" spans="3:27" x14ac:dyDescent="0.25">
       <c r="K57" s="282"/>
       <c r="V57" s="203"/>
-      <c r="W57" s="520" t="s">
-        <v>1062</v>
-      </c>
-      <c r="X57" s="521"/>
+      <c r="W57" s="585" t="s">
+        <v>1060</v>
+      </c>
+      <c r="X57" s="586"/>
       <c r="Y57" s="490" t="s">
         <v>207</v>
       </c>
@@ -12977,8 +13020,8 @@
     <row r="58" spans="3:27" x14ac:dyDescent="0.25">
       <c r="K58" s="282"/>
       <c r="V58" s="203"/>
-      <c r="W58" s="522"/>
-      <c r="X58" s="523"/>
+      <c r="W58" s="587"/>
+      <c r="X58" s="588"/>
       <c r="Y58" s="491" t="s">
         <v>208</v>
       </c>
@@ -12991,8 +13034,8 @@
       <c r="J59" s="285"/>
       <c r="K59" s="282"/>
       <c r="V59" s="203"/>
-      <c r="W59" s="522"/>
-      <c r="X59" s="523"/>
+      <c r="W59" s="587"/>
+      <c r="X59" s="588"/>
       <c r="Y59" s="492" t="s">
         <v>565</v>
       </c>
@@ -13005,8 +13048,8 @@
       <c r="J60" s="287"/>
       <c r="K60" s="282"/>
       <c r="V60" s="203"/>
-      <c r="W60" s="522"/>
-      <c r="X60" s="523"/>
+      <c r="W60" s="587"/>
+      <c r="X60" s="588"/>
       <c r="Y60" s="493" t="s">
         <v>567</v>
       </c>
@@ -13016,33 +13059,41 @@
       <c r="J61" s="289"/>
       <c r="K61" s="282"/>
       <c r="V61" s="203"/>
-      <c r="W61" s="522"/>
-      <c r="X61" s="523"/>
+      <c r="W61" s="587"/>
+      <c r="X61" s="588"/>
       <c r="Y61" s="491" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Z61" s="495">
         <f>S30+S31</f>
         <v>19.24711010998265</v>
       </c>
+      <c r="AA61" s="292">
+        <f>Z61*3.628</f>
+        <v>69.828515479017057</v>
+      </c>
     </row>
     <row r="62" spans="3:27" x14ac:dyDescent="0.25">
       <c r="V62" s="203"/>
-      <c r="W62" s="522"/>
-      <c r="X62" s="523"/>
+      <c r="W62" s="587"/>
+      <c r="X62" s="588"/>
       <c r="Y62" s="491" t="s">
-        <v>1059</v>
-      </c>
-      <c r="Z62" s="638">
+        <v>1057</v>
+      </c>
+      <c r="Z62" s="498">
         <f>(2*'Manpower &amp; time'!H16+Z59)*N32/60</f>
         <v>174.22737344086852</v>
+      </c>
+      <c r="AA62" s="292">
+        <f>Z62*3.628/2</f>
+        <v>316.04845542173553</v>
       </c>
     </row>
     <row r="63" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K63" s="290"/>
       <c r="V63" s="203"/>
-      <c r="W63" s="522"/>
-      <c r="X63" s="523"/>
+      <c r="W63" s="587"/>
+      <c r="X63" s="588"/>
       <c r="Y63" s="410" t="s">
         <v>1013</v>
       </c>
@@ -13055,22 +13106,22 @@
     <row r="64" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K64" s="291"/>
       <c r="V64" s="203"/>
-      <c r="W64" s="522"/>
-      <c r="X64" s="523"/>
+      <c r="W64" s="587"/>
+      <c r="X64" s="588"/>
       <c r="Y64" s="464" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="Z64" s="465"/>
     </row>
     <row r="65" spans="7:40" x14ac:dyDescent="0.25">
       <c r="K65" s="291"/>
       <c r="V65" s="203"/>
-      <c r="W65" s="522"/>
-      <c r="X65" s="523"/>
+      <c r="W65" s="587"/>
+      <c r="X65" s="588"/>
       <c r="Y65" s="410" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Z65" s="637">
+        <v>1053</v>
+      </c>
+      <c r="Z65" s="497">
         <f>('Manpower &amp; time'!H18)</f>
         <v>37.564513408669242</v>
       </c>
@@ -13078,12 +13129,12 @@
     <row r="66" spans="7:40" x14ac:dyDescent="0.25">
       <c r="K66" s="291"/>
       <c r="V66" s="203"/>
-      <c r="W66" s="522"/>
-      <c r="X66" s="523"/>
+      <c r="W66" s="587"/>
+      <c r="X66" s="588"/>
       <c r="Y66" s="410" t="s">
-        <v>1063</v>
-      </c>
-      <c r="Z66" s="637">
+        <v>1061</v>
+      </c>
+      <c r="Z66" s="497">
         <f>('Manpower &amp; time'!H17/60)</f>
         <v>0.5323070974005405</v>
       </c>
@@ -13091,43 +13142,43 @@
     <row r="67" spans="7:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K67" s="292"/>
       <c r="V67" s="203"/>
-      <c r="W67" s="524"/>
-      <c r="X67" s="525"/>
+      <c r="W67" s="590"/>
+      <c r="X67" s="591"/>
       <c r="Y67" s="410" t="s">
-        <v>1060</v>
-      </c>
-      <c r="Z67" s="637">
+        <v>1058</v>
+      </c>
+      <c r="Z67" s="497">
         <f>('Manpower &amp; time'!H16)/60</f>
         <v>0.46388976876781751</v>
       </c>
     </row>
     <row r="68" spans="7:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V68" s="203"/>
-      <c r="W68" s="503" t="s">
-        <v>1051</v>
-      </c>
-      <c r="X68" s="518"/>
-      <c r="Y68" s="518"/>
-      <c r="Z68" s="504"/>
+      <c r="W68" s="561" t="s">
+        <v>1049</v>
+      </c>
+      <c r="X68" s="562"/>
+      <c r="Y68" s="562"/>
+      <c r="Z68" s="563"/>
     </row>
     <row r="69" spans="7:40" x14ac:dyDescent="0.25">
       <c r="V69" s="203"/>
-      <c r="W69" s="520" t="s">
-        <v>1065</v>
-      </c>
-      <c r="X69" s="632"/>
-      <c r="Y69" s="639" t="s">
+      <c r="W69" s="585" t="s">
+        <v>1063</v>
+      </c>
+      <c r="X69" s="599"/>
+      <c r="Y69" s="499" t="s">
         <v>207</v>
       </c>
-      <c r="Z69" s="672">
+      <c r="Z69" s="521">
         <f>SUM(U33:U36)</f>
         <v>9514.7000000000007</v>
       </c>
     </row>
     <row r="70" spans="7:40" x14ac:dyDescent="0.25">
       <c r="V70" s="203"/>
-      <c r="W70" s="633"/>
-      <c r="X70" s="634"/>
+      <c r="W70" s="600"/>
+      <c r="X70" s="601"/>
       <c r="Y70" s="491" t="s">
         <v>208</v>
       </c>
@@ -13139,8 +13190,8 @@
     <row r="71" spans="7:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K71" s="291"/>
       <c r="V71" s="203"/>
-      <c r="W71" s="633"/>
-      <c r="X71" s="634"/>
+      <c r="W71" s="600"/>
+      <c r="X71" s="601"/>
       <c r="Y71" s="491" t="s">
         <v>209</v>
       </c>
@@ -13151,18 +13202,18 @@
     </row>
     <row r="72" spans="7:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V72" s="203"/>
-      <c r="W72" s="633"/>
-      <c r="X72" s="634"/>
-      <c r="Y72" s="539" t="s">
+      <c r="W72" s="600"/>
+      <c r="X72" s="601"/>
+      <c r="Y72" s="595" t="s">
         <v>567</v>
       </c>
-      <c r="Z72" s="527"/>
+      <c r="Z72" s="584"/>
     </row>
     <row r="73" spans="7:40" x14ac:dyDescent="0.25">
       <c r="G73" s="293"/>
       <c r="V73" s="203"/>
-      <c r="W73" s="633"/>
-      <c r="X73" s="634"/>
+      <c r="W73" s="600"/>
+      <c r="X73" s="601"/>
       <c r="Y73" s="491" t="s">
         <v>195</v>
       </c>
@@ -13173,8 +13224,8 @@
     </row>
     <row r="74" spans="7:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V74" s="203"/>
-      <c r="W74" s="635"/>
-      <c r="X74" s="636"/>
+      <c r="W74" s="602"/>
+      <c r="X74" s="603"/>
       <c r="Y74" s="494" t="s">
         <v>206</v>
       </c>
@@ -13185,31 +13236,31 @@
     </row>
     <row r="75" spans="7:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V75" s="203"/>
-      <c r="W75" s="503" t="s">
-        <v>1066</v>
-      </c>
-      <c r="X75" s="518"/>
-      <c r="Y75" s="518"/>
-      <c r="Z75" s="504"/>
+      <c r="W75" s="561" t="s">
+        <v>1064</v>
+      </c>
+      <c r="X75" s="562"/>
+      <c r="Y75" s="562"/>
+      <c r="Z75" s="563"/>
     </row>
     <row r="76" spans="7:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V76" s="203"/>
-      <c r="W76" s="520" t="s">
-        <v>1072</v>
-      </c>
-      <c r="X76" s="521"/>
+      <c r="W76" s="585" t="s">
+        <v>1070</v>
+      </c>
+      <c r="X76" s="586"/>
       <c r="Y76" s="398" t="s">
         <v>207</v>
       </c>
-      <c r="Z76" s="650">
+      <c r="Z76" s="507">
         <f>SUM(U40:U47)</f>
         <v>52088.34</v>
       </c>
     </row>
     <row r="77" spans="7:40" x14ac:dyDescent="0.25">
       <c r="V77" s="203"/>
-      <c r="W77" s="522"/>
-      <c r="X77" s="523"/>
+      <c r="W77" s="587"/>
+      <c r="X77" s="588"/>
       <c r="Y77" s="380" t="s">
         <v>208</v>
       </c>
@@ -13220,8 +13271,8 @@
     </row>
     <row r="78" spans="7:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V78" s="203"/>
-      <c r="W78" s="522"/>
-      <c r="X78" s="523"/>
+      <c r="W78" s="587"/>
+      <c r="X78" s="588"/>
       <c r="Y78" s="410" t="s">
         <v>565</v>
       </c>
@@ -13233,21 +13284,21 @@
     </row>
     <row r="79" spans="7:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V79" s="203"/>
-      <c r="W79" s="522"/>
-      <c r="X79" s="523"/>
-      <c r="Y79" s="651" t="s">
-        <v>1071</v>
-      </c>
-      <c r="Z79" s="652"/>
+      <c r="W79" s="587"/>
+      <c r="X79" s="588"/>
+      <c r="Y79" s="597" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Z79" s="598"/>
     </row>
     <row r="80" spans="7:40" x14ac:dyDescent="0.25">
       <c r="V80" s="203"/>
-      <c r="W80" s="522"/>
-      <c r="X80" s="523"/>
+      <c r="W80" s="587"/>
+      <c r="X80" s="588"/>
       <c r="Y80" s="398" t="s">
-        <v>1122</v>
-      </c>
-      <c r="Z80" s="691">
+        <v>1120</v>
+      </c>
+      <c r="Z80" s="529">
         <f>8*('Manpower &amp; time'!H17+Z78)</f>
         <v>980.05212752520424</v>
       </c>
@@ -13255,10 +13306,10 @@
     </row>
     <row r="81" spans="19:40" x14ac:dyDescent="0.25">
       <c r="V81" s="203"/>
-      <c r="W81" s="522"/>
-      <c r="X81" s="523"/>
+      <c r="W81" s="587"/>
+      <c r="X81" s="588"/>
       <c r="Y81" s="380" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="Z81" s="495">
         <f>'Manpower &amp; time'!H17</f>
@@ -13268,10 +13319,10 @@
     </row>
     <row r="82" spans="19:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V82" s="203"/>
-      <c r="W82" s="524"/>
-      <c r="X82" s="525"/>
-      <c r="Y82" s="653" t="s">
-        <v>1120</v>
+      <c r="W82" s="590"/>
+      <c r="X82" s="591"/>
+      <c r="Y82" s="508" t="s">
+        <v>1118</v>
       </c>
       <c r="Z82" s="496">
         <f>SUM('Body Manufacturing'!E24:E27)</f>
@@ -13586,8 +13637,8 @@
       <c r="U129" s="393"/>
       <c r="V129" s="393"/>
       <c r="W129" s="393"/>
-      <c r="X129" s="519"/>
-      <c r="Y129" s="519"/>
+      <c r="X129" s="589"/>
+      <c r="Y129" s="589"/>
       <c r="Z129" s="392"/>
       <c r="AA129" s="393"/>
       <c r="AB129" s="393"/>
@@ -13599,8 +13650,8 @@
       <c r="U130" s="393"/>
       <c r="V130" s="393"/>
       <c r="W130" s="393"/>
-      <c r="X130" s="519"/>
-      <c r="Y130" s="519"/>
+      <c r="X130" s="589"/>
+      <c r="Y130" s="589"/>
       <c r="Z130" s="392"/>
       <c r="AA130" s="393"/>
       <c r="AB130" s="393"/>
@@ -13612,8 +13663,8 @@
       <c r="U131" s="393"/>
       <c r="V131" s="393"/>
       <c r="W131" s="393"/>
-      <c r="X131" s="519"/>
-      <c r="Y131" s="519"/>
+      <c r="X131" s="589"/>
+      <c r="Y131" s="589"/>
       <c r="Z131" s="392"/>
       <c r="AA131" s="393"/>
       <c r="AB131" s="393"/>
@@ -13625,8 +13676,8 @@
       <c r="U132" s="393"/>
       <c r="V132" s="393"/>
       <c r="W132" s="393"/>
-      <c r="X132" s="519"/>
-      <c r="Y132" s="519"/>
+      <c r="X132" s="589"/>
+      <c r="Y132" s="589"/>
       <c r="Z132" s="392"/>
       <c r="AA132" s="393"/>
       <c r="AB132" s="393"/>
@@ -13638,8 +13689,8 @@
       <c r="U133" s="393"/>
       <c r="V133" s="393"/>
       <c r="W133" s="393"/>
-      <c r="X133" s="519"/>
-      <c r="Y133" s="519"/>
+      <c r="X133" s="589"/>
+      <c r="Y133" s="589"/>
       <c r="Z133" s="392"/>
       <c r="AA133" s="393"/>
       <c r="AB133" s="393"/>
@@ -13651,8 +13702,8 @@
       <c r="U134" s="393"/>
       <c r="V134" s="393"/>
       <c r="W134" s="393"/>
-      <c r="X134" s="519"/>
-      <c r="Y134" s="519"/>
+      <c r="X134" s="589"/>
+      <c r="Y134" s="589"/>
       <c r="Z134" s="392"/>
       <c r="AA134" s="393"/>
       <c r="AB134" s="393"/>
@@ -13664,8 +13715,8 @@
       <c r="U135" s="393"/>
       <c r="V135" s="393"/>
       <c r="W135" s="393"/>
-      <c r="X135" s="519"/>
-      <c r="Y135" s="519"/>
+      <c r="X135" s="589"/>
+      <c r="Y135" s="589"/>
       <c r="Z135" s="392"/>
       <c r="AA135" s="393"/>
       <c r="AB135" s="393"/>
@@ -13677,8 +13728,8 @@
       <c r="U136" s="393"/>
       <c r="V136" s="393"/>
       <c r="W136" s="393"/>
-      <c r="X136" s="519"/>
-      <c r="Y136" s="519"/>
+      <c r="X136" s="589"/>
+      <c r="Y136" s="589"/>
       <c r="Z136" s="392"/>
       <c r="AA136" s="393"/>
       <c r="AB136" s="393"/>
@@ -13690,8 +13741,8 @@
       <c r="U137" s="393"/>
       <c r="V137" s="393"/>
       <c r="W137" s="393"/>
-      <c r="X137" s="519"/>
-      <c r="Y137" s="519"/>
+      <c r="X137" s="589"/>
+      <c r="Y137" s="589"/>
       <c r="Z137" s="392"/>
       <c r="AA137" s="393"/>
       <c r="AB137" s="393"/>
@@ -13703,8 +13754,8 @@
       <c r="U138" s="393"/>
       <c r="V138" s="393"/>
       <c r="W138" s="393"/>
-      <c r="X138" s="519"/>
-      <c r="Y138" s="519"/>
+      <c r="X138" s="589"/>
+      <c r="Y138" s="589"/>
       <c r="Z138" s="392"/>
       <c r="AA138" s="393"/>
       <c r="AB138" s="393"/>
@@ -13714,10 +13765,10 @@
       <c r="S139" s="393"/>
       <c r="T139" s="393"/>
       <c r="U139" s="393"/>
-      <c r="V139" s="519"/>
-      <c r="W139" s="519"/>
-      <c r="X139" s="519"/>
-      <c r="Y139" s="519"/>
+      <c r="V139" s="589"/>
+      <c r="W139" s="589"/>
+      <c r="X139" s="589"/>
+      <c r="Y139" s="589"/>
       <c r="Z139" s="392"/>
       <c r="AA139" s="393"/>
       <c r="AB139" s="393"/>
@@ -13727,10 +13778,10 @@
       <c r="S140" s="393"/>
       <c r="T140" s="393"/>
       <c r="U140" s="393"/>
-      <c r="V140" s="519"/>
-      <c r="W140" s="519"/>
-      <c r="X140" s="519"/>
-      <c r="Y140" s="519"/>
+      <c r="V140" s="589"/>
+      <c r="W140" s="589"/>
+      <c r="X140" s="589"/>
+      <c r="Y140" s="589"/>
       <c r="Z140" s="392"/>
       <c r="AA140" s="393"/>
       <c r="AB140" s="393"/>
@@ -13742,8 +13793,8 @@
       <c r="U141" s="393"/>
       <c r="V141" s="391"/>
       <c r="W141" s="396"/>
-      <c r="X141" s="519"/>
-      <c r="Y141" s="519"/>
+      <c r="X141" s="589"/>
+      <c r="Y141" s="589"/>
       <c r="Z141" s="392"/>
       <c r="AA141" s="393"/>
       <c r="AB141" s="393"/>
@@ -13753,10 +13804,10 @@
       <c r="S142" s="393"/>
       <c r="T142" s="393"/>
       <c r="U142" s="393"/>
-      <c r="V142" s="519"/>
-      <c r="W142" s="519"/>
-      <c r="X142" s="519"/>
-      <c r="Y142" s="519"/>
+      <c r="V142" s="589"/>
+      <c r="W142" s="589"/>
+      <c r="X142" s="589"/>
+      <c r="Y142" s="589"/>
       <c r="Z142" s="392"/>
       <c r="AA142" s="393"/>
       <c r="AB142" s="393"/>
@@ -13766,10 +13817,10 @@
       <c r="S143" s="393"/>
       <c r="T143" s="393"/>
       <c r="U143" s="393"/>
-      <c r="V143" s="519"/>
-      <c r="W143" s="519"/>
-      <c r="X143" s="519"/>
-      <c r="Y143" s="519"/>
+      <c r="V143" s="589"/>
+      <c r="W143" s="589"/>
+      <c r="X143" s="589"/>
+      <c r="Y143" s="589"/>
       <c r="Z143" s="392"/>
       <c r="AA143" s="393"/>
       <c r="AB143" s="393"/>
@@ -13779,10 +13830,10 @@
       <c r="S144" s="393"/>
       <c r="T144" s="393"/>
       <c r="U144" s="393"/>
-      <c r="V144" s="519"/>
-      <c r="W144" s="519"/>
-      <c r="X144" s="519"/>
-      <c r="Y144" s="519"/>
+      <c r="V144" s="589"/>
+      <c r="W144" s="589"/>
+      <c r="X144" s="589"/>
+      <c r="Y144" s="589"/>
       <c r="Z144" s="392"/>
       <c r="AA144" s="393"/>
       <c r="AB144" s="393"/>
@@ -13792,10 +13843,10 @@
       <c r="S145" s="393"/>
       <c r="T145" s="393"/>
       <c r="U145" s="393"/>
-      <c r="V145" s="519"/>
-      <c r="W145" s="519"/>
-      <c r="X145" s="519"/>
-      <c r="Y145" s="519"/>
+      <c r="V145" s="589"/>
+      <c r="W145" s="589"/>
+      <c r="X145" s="589"/>
+      <c r="Y145" s="589"/>
       <c r="Z145" s="392"/>
       <c r="AA145" s="393"/>
       <c r="AB145" s="393"/>
@@ -13805,10 +13856,10 @@
       <c r="S146" s="393"/>
       <c r="T146" s="393"/>
       <c r="U146" s="393"/>
-      <c r="V146" s="519"/>
-      <c r="W146" s="519"/>
-      <c r="X146" s="519"/>
-      <c r="Y146" s="519"/>
+      <c r="V146" s="589"/>
+      <c r="W146" s="589"/>
+      <c r="X146" s="589"/>
+      <c r="Y146" s="589"/>
       <c r="Z146" s="392"/>
       <c r="AA146" s="393"/>
       <c r="AB146" s="393"/>
@@ -13818,10 +13869,10 @@
       <c r="S147" s="393"/>
       <c r="T147" s="393"/>
       <c r="U147" s="393"/>
-      <c r="V147" s="519"/>
-      <c r="W147" s="519"/>
-      <c r="X147" s="519"/>
-      <c r="Y147" s="519"/>
+      <c r="V147" s="589"/>
+      <c r="W147" s="589"/>
+      <c r="X147" s="589"/>
+      <c r="Y147" s="589"/>
       <c r="Z147" s="392"/>
       <c r="AA147" s="393"/>
       <c r="AB147" s="393"/>
@@ -13831,10 +13882,10 @@
       <c r="S148" s="393"/>
       <c r="T148" s="393"/>
       <c r="U148" s="393"/>
-      <c r="V148" s="519"/>
-      <c r="W148" s="519"/>
-      <c r="X148" s="519"/>
-      <c r="Y148" s="519"/>
+      <c r="V148" s="589"/>
+      <c r="W148" s="589"/>
+      <c r="X148" s="589"/>
+      <c r="Y148" s="589"/>
       <c r="Z148" s="392"/>
       <c r="AA148" s="393"/>
       <c r="AB148" s="393"/>
@@ -13844,10 +13895,10 @@
       <c r="S149" s="393"/>
       <c r="T149" s="393"/>
       <c r="U149" s="393"/>
-      <c r="V149" s="519"/>
-      <c r="W149" s="519"/>
-      <c r="X149" s="519"/>
-      <c r="Y149" s="519"/>
+      <c r="V149" s="589"/>
+      <c r="W149" s="589"/>
+      <c r="X149" s="589"/>
+      <c r="Y149" s="589"/>
       <c r="Z149" s="392"/>
       <c r="AA149" s="393"/>
       <c r="AB149" s="393"/>
@@ -13859,8 +13910,8 @@
       <c r="U150" s="393"/>
       <c r="V150" s="393"/>
       <c r="W150" s="393"/>
-      <c r="X150" s="519"/>
-      <c r="Y150" s="519"/>
+      <c r="X150" s="589"/>
+      <c r="Y150" s="589"/>
       <c r="Z150" s="392"/>
       <c r="AA150" s="393"/>
       <c r="AB150" s="393"/>
@@ -13870,10 +13921,10 @@
       <c r="S151" s="393"/>
       <c r="T151" s="393"/>
       <c r="U151" s="393"/>
-      <c r="V151" s="519"/>
-      <c r="W151" s="519"/>
-      <c r="X151" s="519"/>
-      <c r="Y151" s="519"/>
+      <c r="V151" s="589"/>
+      <c r="W151" s="589"/>
+      <c r="X151" s="589"/>
+      <c r="Y151" s="589"/>
       <c r="Z151" s="392"/>
       <c r="AA151" s="393"/>
       <c r="AB151" s="393"/>
@@ -13885,8 +13936,8 @@
       <c r="U152" s="393"/>
       <c r="V152" s="397"/>
       <c r="W152" s="397"/>
-      <c r="X152" s="519"/>
-      <c r="Y152" s="519"/>
+      <c r="X152" s="589"/>
+      <c r="Y152" s="589"/>
       <c r="Z152" s="392"/>
       <c r="AA152" s="393"/>
       <c r="AB152" s="393"/>
@@ -13898,8 +13949,8 @@
       <c r="U153" s="393"/>
       <c r="V153" s="393"/>
       <c r="W153" s="393"/>
-      <c r="X153" s="519"/>
-      <c r="Y153" s="519"/>
+      <c r="X153" s="589"/>
+      <c r="Y153" s="589"/>
       <c r="Z153" s="392"/>
       <c r="AA153" s="393"/>
       <c r="AB153" s="393"/>
@@ -13911,8 +13962,8 @@
       <c r="U154" s="393"/>
       <c r="V154" s="393"/>
       <c r="W154" s="393"/>
-      <c r="X154" s="519"/>
-      <c r="Y154" s="519"/>
+      <c r="X154" s="589"/>
+      <c r="Y154" s="589"/>
       <c r="Z154" s="392"/>
       <c r="AA154" s="393"/>
       <c r="AB154" s="393"/>
@@ -13924,8 +13975,8 @@
       <c r="U155" s="393"/>
       <c r="V155" s="393"/>
       <c r="W155" s="393"/>
-      <c r="X155" s="519"/>
-      <c r="Y155" s="519"/>
+      <c r="X155" s="589"/>
+      <c r="Y155" s="589"/>
       <c r="Z155" s="392"/>
       <c r="AA155" s="393"/>
       <c r="AB155" s="393"/>
@@ -13937,8 +13988,8 @@
       <c r="U156" s="393"/>
       <c r="V156" s="393"/>
       <c r="W156" s="393"/>
-      <c r="X156" s="519"/>
-      <c r="Y156" s="519"/>
+      <c r="X156" s="589"/>
+      <c r="Y156" s="589"/>
       <c r="Z156" s="392"/>
       <c r="AA156" s="393"/>
       <c r="AB156" s="393"/>
@@ -13950,8 +14001,8 @@
       <c r="U157" s="393"/>
       <c r="V157" s="393"/>
       <c r="W157" s="393"/>
-      <c r="X157" s="519"/>
-      <c r="Y157" s="519"/>
+      <c r="X157" s="589"/>
+      <c r="Y157" s="589"/>
       <c r="Z157" s="392"/>
       <c r="AA157" s="393"/>
       <c r="AB157" s="393"/>
@@ -13961,10 +14012,10 @@
       <c r="S158" s="393"/>
       <c r="T158" s="393"/>
       <c r="U158" s="393"/>
-      <c r="V158" s="519"/>
-      <c r="W158" s="519"/>
-      <c r="X158" s="519"/>
-      <c r="Y158" s="519"/>
+      <c r="V158" s="589"/>
+      <c r="W158" s="589"/>
+      <c r="X158" s="589"/>
+      <c r="Y158" s="589"/>
       <c r="Z158" s="392"/>
       <c r="AA158" s="393"/>
       <c r="AB158" s="393"/>
@@ -13976,8 +14027,8 @@
       <c r="U159" s="393"/>
       <c r="V159" s="397"/>
       <c r="W159" s="397"/>
-      <c r="X159" s="519"/>
-      <c r="Y159" s="519"/>
+      <c r="X159" s="589"/>
+      <c r="Y159" s="589"/>
       <c r="Z159" s="392"/>
       <c r="AA159" s="393"/>
       <c r="AB159" s="393"/>
@@ -13989,8 +14040,8 @@
       <c r="U160" s="393"/>
       <c r="V160" s="393"/>
       <c r="W160" s="393"/>
-      <c r="X160" s="519"/>
-      <c r="Y160" s="519"/>
+      <c r="X160" s="589"/>
+      <c r="Y160" s="589"/>
       <c r="Z160" s="392"/>
       <c r="AA160" s="393"/>
       <c r="AB160" s="393"/>
@@ -14002,8 +14053,8 @@
       <c r="U161" s="393"/>
       <c r="V161" s="393"/>
       <c r="W161" s="393"/>
-      <c r="X161" s="519"/>
-      <c r="Y161" s="519"/>
+      <c r="X161" s="589"/>
+      <c r="Y161" s="589"/>
       <c r="Z161" s="392"/>
       <c r="AA161" s="393"/>
       <c r="AB161" s="393"/>
@@ -14015,8 +14066,8 @@
       <c r="U162" s="393"/>
       <c r="V162" s="393"/>
       <c r="W162" s="393"/>
-      <c r="X162" s="519"/>
-      <c r="Y162" s="519"/>
+      <c r="X162" s="589"/>
+      <c r="Y162" s="589"/>
       <c r="Z162" s="392"/>
       <c r="AA162" s="393"/>
       <c r="AB162" s="393"/>
@@ -14028,8 +14079,8 @@
       <c r="U163" s="393"/>
       <c r="V163" s="393"/>
       <c r="W163" s="393"/>
-      <c r="X163" s="519"/>
-      <c r="Y163" s="519"/>
+      <c r="X163" s="589"/>
+      <c r="Y163" s="589"/>
       <c r="Z163" s="392"/>
       <c r="AA163" s="393"/>
       <c r="AB163" s="393"/>
@@ -14284,14 +14335,6 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="W76:X82"/>
-    <mergeCell ref="P32:U32"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="P39:U39"/>
-    <mergeCell ref="W68:Z68"/>
-    <mergeCell ref="W75:Z75"/>
-    <mergeCell ref="Y79:Z79"/>
-    <mergeCell ref="W56:Z56"/>
     <mergeCell ref="W57:X67"/>
     <mergeCell ref="W69:X74"/>
     <mergeCell ref="X161:Y161"/>
@@ -14355,14 +14398,18 @@
     <mergeCell ref="Y39:Z39"/>
     <mergeCell ref="Y43:Z43"/>
     <mergeCell ref="E5:E8"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="Y35:Z35"/>
     <mergeCell ref="W48:Z48"/>
     <mergeCell ref="Y52:Z52"/>
     <mergeCell ref="W49:X55"/>
+    <mergeCell ref="W76:X82"/>
+    <mergeCell ref="P32:U32"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="P39:U39"/>
+    <mergeCell ref="W68:Z68"/>
+    <mergeCell ref="W75:Z75"/>
+    <mergeCell ref="Y79:Z79"/>
+    <mergeCell ref="W56:Z56"/>
+    <mergeCell ref="Y35:Z35"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="P18:U18"/>
     <mergeCell ref="P12:U12"/>
@@ -14372,16 +14419,20 @@
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="W25:X33"/>
     <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="G2:K2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G19:G24"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B5:B8"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G18"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="P22:U22"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14430,13 +14481,13 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="577" t="s">
+      <c r="B2" s="640" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="578"/>
-      <c r="D2" s="578"/>
-      <c r="E2" s="578"/>
-      <c r="F2" s="579"/>
+      <c r="C2" s="641"/>
+      <c r="D2" s="641"/>
+      <c r="E2" s="641"/>
+      <c r="F2" s="642"/>
       <c r="V2" s="162"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14567,12 +14618,12 @@
     </row>
     <row r="12" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="609" t="s">
+      <c r="B13" s="678" t="s">
         <v>1027</v>
       </c>
-      <c r="C13" s="610"/>
-      <c r="D13" s="610"/>
-      <c r="E13" s="611"/>
+      <c r="C13" s="679"/>
+      <c r="D13" s="679"/>
+      <c r="E13" s="680"/>
     </row>
     <row r="14" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="449"/>
@@ -14596,7 +14647,7 @@
       <c r="AD14" s="162"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="583" t="s">
+      <c r="B15" s="646" t="s">
         <v>240</v>
       </c>
       <c r="C15" s="10">
@@ -14620,7 +14671,7 @@
       <c r="AD15" s="162"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="584"/>
+      <c r="B16" s="647"/>
       <c r="C16" s="7">
         <v>1.63</v>
       </c>
@@ -14638,7 +14689,7 @@
       <c r="AD16" s="162"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="584"/>
+      <c r="B17" s="647"/>
       <c r="C17" s="7">
         <v>2.31</v>
       </c>
@@ -14656,7 +14707,7 @@
       <c r="AD17" s="162"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="584"/>
+      <c r="B18" s="647"/>
       <c r="C18" s="7">
         <v>3.26</v>
       </c>
@@ -14673,7 +14724,7 @@
       <c r="AC18" s="162"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="584"/>
+      <c r="B19" s="647"/>
       <c r="C19" s="7">
         <v>4.12</v>
       </c>
@@ -14695,7 +14746,7 @@
       <c r="AC19" s="162"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="584"/>
+      <c r="B20" s="647"/>
       <c r="C20" s="7">
         <v>5.82</v>
       </c>
@@ -14717,7 +14768,7 @@
       <c r="AC20" s="162"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="584"/>
+      <c r="B21" s="647"/>
       <c r="C21" s="7">
         <v>6.35</v>
       </c>
@@ -14739,7 +14790,7 @@
       <c r="AC21" s="162"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="584"/>
+      <c r="B22" s="647"/>
       <c r="C22" s="7">
         <v>7.9379999999999997</v>
       </c>
@@ -14753,7 +14804,7 @@
       <c r="F22" s="162"/>
     </row>
     <row r="23" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="585"/>
+      <c r="B23" s="648"/>
       <c r="C23" s="11">
         <v>9.5250000000000004</v>
       </c>
@@ -14778,7 +14829,7 @@
       <c r="E24" s="457"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B25" s="583" t="s">
+      <c r="B25" s="646" t="s">
         <v>243</v>
       </c>
       <c r="C25" s="10">
@@ -14793,7 +14844,7 @@
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B26" s="584"/>
+      <c r="B26" s="647"/>
       <c r="C26" s="7">
         <v>1.63</v>
       </c>
@@ -14806,7 +14857,7 @@
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B27" s="584"/>
+      <c r="B27" s="647"/>
       <c r="C27" s="7">
         <v>2.31</v>
       </c>
@@ -14819,7 +14870,7 @@
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="584"/>
+      <c r="B28" s="647"/>
       <c r="C28" s="7">
         <v>3.26</v>
       </c>
@@ -14832,7 +14883,7 @@
       </c>
     </row>
     <row r="29" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="585"/>
+      <c r="B29" s="648"/>
       <c r="C29" s="11">
         <v>4.12</v>
       </c>
@@ -14856,7 +14907,7 @@
       <c r="E30" s="457"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="584" t="s">
+      <c r="B31" s="647" t="s">
         <v>244</v>
       </c>
       <c r="C31" s="24">
@@ -14871,7 +14922,7 @@
       </c>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B32" s="584"/>
+      <c r="B32" s="647"/>
       <c r="C32" s="7">
         <v>1.63</v>
       </c>
@@ -14884,7 +14935,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="585"/>
+      <c r="B33" s="648"/>
       <c r="C33" s="11">
         <v>2.31</v>
       </c>
@@ -14909,12 +14960,12 @@
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="609" t="s">
+      <c r="B36" s="678" t="s">
         <v>1034</v>
       </c>
-      <c r="C36" s="610"/>
-      <c r="D36" s="610"/>
-      <c r="E36" s="611"/>
+      <c r="C36" s="679"/>
+      <c r="D36" s="679"/>
+      <c r="E36" s="680"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="467" t="s">
@@ -14934,13 +14985,13 @@
       <c r="B38" s="468" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="618">
+      <c r="C38" s="684">
         <v>1273.5</v>
       </c>
-      <c r="D38" s="620">
+      <c r="D38" s="686">
         <v>62</v>
       </c>
-      <c r="E38" s="622">
+      <c r="E38" s="688">
         <v>10600</v>
       </c>
     </row>
@@ -14948,48 +14999,48 @@
       <c r="B39" s="469" t="s">
         <v>1030</v>
       </c>
-      <c r="C39" s="619"/>
-      <c r="D39" s="621"/>
-      <c r="E39" s="623"/>
+      <c r="C39" s="685"/>
+      <c r="D39" s="687"/>
+      <c r="E39" s="689"/>
     </row>
     <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="469" t="s">
         <v>1029</v>
       </c>
-      <c r="C40" s="612" t="s">
+      <c r="C40" s="672" t="s">
         <v>1040</v>
       </c>
-      <c r="D40" s="613"/>
-      <c r="E40" s="614"/>
+      <c r="D40" s="673"/>
+      <c r="E40" s="674"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="470" t="s">
         <v>1036</v>
       </c>
-      <c r="C41" s="615">
+      <c r="C41" s="681">
         <f>D38*E38/C38*60</f>
         <v>30963.486454652528</v>
       </c>
-      <c r="D41" s="616"/>
-      <c r="E41" s="617"/>
+      <c r="D41" s="682"/>
+      <c r="E41" s="683"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="612" t="s">
+      <c r="B42" s="672" t="s">
         <v>1041</v>
       </c>
-      <c r="C42" s="613"/>
-      <c r="D42" s="613"/>
-      <c r="E42" s="614"/>
+      <c r="C42" s="673"/>
+      <c r="D42" s="673"/>
+      <c r="E42" s="674"/>
       <c r="F42" s="454"/>
     </row>
     <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="624">
+      <c r="B43" s="675">
         <f>C41/60*1/C24</f>
         <v>3771631.1018524538</v>
       </c>
-      <c r="C43" s="625"/>
-      <c r="D43" s="625"/>
-      <c r="E43" s="626"/>
+      <c r="C43" s="676"/>
+      <c r="D43" s="676"/>
+      <c r="E43" s="677"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="162"/>
@@ -15082,13 +15133,13 @@
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75"/>
-      <c r="B2" s="577" t="s">
+      <c r="B2" s="640" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="578"/>
-      <c r="D2" s="578"/>
-      <c r="E2" s="578"/>
-      <c r="F2" s="579"/>
+      <c r="C2" s="641"/>
+      <c r="D2" s="641"/>
+      <c r="E2" s="641"/>
+      <c r="F2" s="642"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75"/>
@@ -15260,21 +15311,21 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="75"/>
-      <c r="C13" s="577" t="s">
+      <c r="C13" s="640" t="s">
         <v>405</v>
       </c>
-      <c r="D13" s="578"/>
-      <c r="E13" s="578"/>
-      <c r="F13" s="579"/>
+      <c r="D13" s="641"/>
+      <c r="E13" s="641"/>
+      <c r="F13" s="642"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="75"/>
-      <c r="C14" s="580" t="s">
+      <c r="C14" s="643" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="581"/>
-      <c r="E14" s="581"/>
-      <c r="F14" s="582"/>
+      <c r="D14" s="644"/>
+      <c r="E14" s="644"/>
+      <c r="F14" s="645"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75"/>
@@ -15297,10 +15348,10 @@
       <c r="D16" s="99">
         <v>200</v>
       </c>
-      <c r="E16" s="599" t="s">
+      <c r="E16" s="662" t="s">
         <v>414</v>
       </c>
-      <c r="F16" s="600"/>
+      <c r="F16" s="663"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75"/>
@@ -15310,8 +15361,8 @@
       <c r="D17" s="94">
         <v>18</v>
       </c>
-      <c r="E17" s="601"/>
-      <c r="F17" s="602"/>
+      <c r="E17" s="664"/>
+      <c r="F17" s="665"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="75"/>
@@ -15322,8 +15373,8 @@
         <f>D17*5/228</f>
         <v>0.39473684210526316</v>
       </c>
-      <c r="E18" s="601"/>
-      <c r="F18" s="602"/>
+      <c r="E18" s="664"/>
+      <c r="F18" s="665"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="75"/>
@@ -15333,8 +15384,8 @@
       <c r="D19" s="94">
         <v>5.5</v>
       </c>
-      <c r="E19" s="601"/>
-      <c r="F19" s="602"/>
+      <c r="E19" s="664"/>
+      <c r="F19" s="665"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="75"/>
@@ -15345,17 +15396,17 @@
         <f>D18/D19*D16</f>
         <v>14.354066985645932</v>
       </c>
-      <c r="E20" s="603"/>
-      <c r="F20" s="604"/>
+      <c r="E20" s="666"/>
+      <c r="F20" s="667"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="75"/>
-      <c r="C21" s="580" t="s">
+      <c r="C21" s="643" t="s">
         <v>413</v>
       </c>
-      <c r="D21" s="581"/>
-      <c r="E21" s="581"/>
-      <c r="F21" s="582"/>
+      <c r="D21" s="644"/>
+      <c r="E21" s="644"/>
+      <c r="F21" s="645"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="75"/>
@@ -15363,10 +15414,10 @@
       <c r="D22" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="605" t="s">
+      <c r="E22" s="668" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="606"/>
+      <c r="F22" s="669"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="96" t="s">
@@ -15375,10 +15426,10 @@
       <c r="D23" s="79">
         <v>78</v>
       </c>
-      <c r="E23" s="599" t="s">
+      <c r="E23" s="662" t="s">
         <v>409</v>
       </c>
-      <c r="F23" s="600"/>
+      <c r="F23" s="663"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="96" t="s">
@@ -15387,8 +15438,8 @@
       <c r="D24" s="79">
         <v>1.6</v>
       </c>
-      <c r="E24" s="601"/>
-      <c r="F24" s="602"/>
+      <c r="E24" s="664"/>
+      <c r="F24" s="665"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="96" t="s">
@@ -15397,8 +15448,8 @@
       <c r="D25" s="79">
         <v>1.3</v>
       </c>
-      <c r="E25" s="601"/>
-      <c r="F25" s="602"/>
+      <c r="E25" s="664"/>
+      <c r="F25" s="665"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="75"/>
@@ -15409,8 +15460,8 @@
         <f>7.8*1000*PI()*(D24*0.001)^2*1</f>
         <v>6.2731322106880996E-2</v>
       </c>
-      <c r="E26" s="601"/>
-      <c r="F26" s="602"/>
+      <c r="E26" s="664"/>
+      <c r="F26" s="665"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
@@ -15421,17 +15472,17 @@
         <f>D23*D26</f>
         <v>4.8930431243367174</v>
       </c>
-      <c r="E27" s="603"/>
-      <c r="F27" s="604"/>
+      <c r="E27" s="666"/>
+      <c r="F27" s="667"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="75"/>
-      <c r="C28" s="627" t="s">
+      <c r="C28" s="690" t="s">
         <v>303</v>
       </c>
-      <c r="D28" s="628"/>
-      <c r="E28" s="628"/>
-      <c r="F28" s="629"/>
+      <c r="D28" s="691"/>
+      <c r="E28" s="691"/>
+      <c r="F28" s="692"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="75"/>
@@ -15439,10 +15490,10 @@
       <c r="D29" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="605" t="s">
+      <c r="E29" s="668" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="606"/>
+      <c r="F29" s="669"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="75"/>
@@ -15453,34 +15504,34 @@
         <f>156-36</f>
         <v>120</v>
       </c>
-      <c r="E30" s="599" t="s">
+      <c r="E30" s="662" t="s">
         <v>412</v>
       </c>
-      <c r="F30" s="600"/>
+      <c r="F30" s="663"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="75"/>
       <c r="C31" s="96" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D31" s="81">
         <f>2*'Manpower &amp; time'!H16</f>
         <v>55.666772252138102</v>
       </c>
-      <c r="E31" s="601"/>
-      <c r="F31" s="602"/>
+      <c r="E31" s="664"/>
+      <c r="F31" s="665"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="75"/>
       <c r="C32" s="96" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D32" s="90">
         <f>D31*D30</f>
         <v>6680.0126702565722</v>
       </c>
-      <c r="E32" s="603"/>
-      <c r="F32" s="604"/>
+      <c r="E32" s="666"/>
+      <c r="F32" s="667"/>
     </row>
     <row r="33" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15528,7 +15579,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15567,7 +15618,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
-      <c r="B3" s="630" t="s">
+      <c r="B3" s="693" t="s">
         <v>497</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -15587,7 +15638,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75"/>
-      <c r="B4" s="631"/>
+      <c r="B4" s="694"/>
       <c r="C4" s="14" t="s">
         <v>309</v>
       </c>
@@ -15623,8 +15674,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B13" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:D51"/>
+    <sheetView showGridLines="0" topLeftCell="B14" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15640,13 +15691,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="577" t="s">
+      <c r="B2" s="640" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="578"/>
-      <c r="D2" s="578"/>
-      <c r="E2" s="578"/>
-      <c r="F2" s="579"/>
+      <c r="C2" s="641"/>
+      <c r="D2" s="641"/>
+      <c r="E2" s="641"/>
+      <c r="F2" s="642"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="86" t="s">
@@ -15840,13 +15891,13 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="577" t="s">
+      <c r="B14" s="640" t="s">
         <v>423</v>
       </c>
-      <c r="C14" s="578"/>
-      <c r="D14" s="578"/>
-      <c r="E14" s="578"/>
-      <c r="F14" s="579"/>
+      <c r="C14" s="641"/>
+      <c r="D14" s="641"/>
+      <c r="E14" s="641"/>
+      <c r="F14" s="642"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="86" t="s">
@@ -15869,8 +15920,8 @@
       <c r="B16" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="C16" s="673" t="s">
-        <v>1086</v>
+      <c r="C16" s="522" t="s">
+        <v>1084</v>
       </c>
       <c r="D16" s="23">
         <f>300000/1.2</f>
@@ -15880,7 +15931,7 @@
         <v>300000</v>
       </c>
       <c r="F16" s="124" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -15930,46 +15981,46 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="577" t="s">
+      <c r="B21" s="640" t="s">
         <v>405</v>
       </c>
-      <c r="C21" s="578"/>
-      <c r="D21" s="674"/>
-      <c r="E21" s="674"/>
-      <c r="F21" s="675"/>
+      <c r="C21" s="641"/>
+      <c r="D21" s="699"/>
+      <c r="E21" s="699"/>
+      <c r="F21" s="695"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="630" t="s">
+      <c r="B22" s="693" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="683" t="s">
+      <c r="C22" s="524" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="676" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E22" s="677" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F22" s="678" t="s">
+      <c r="D22" s="700" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E22" s="702" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F22" s="704" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="631"/>
-      <c r="C23" s="682" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D23" s="679"/>
-      <c r="E23" s="680"/>
-      <c r="F23" s="681"/>
+      <c r="B23" s="694"/>
+      <c r="C23" s="523" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D23" s="701"/>
+      <c r="E23" s="703"/>
+      <c r="F23" s="705"/>
     </row>
     <row r="24" spans="1:6" s="162" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="118" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C24" s="690" t="s">
-        <v>1107</v>
+        <v>1102</v>
+      </c>
+      <c r="C24" s="528" t="s">
+        <v>1105</v>
       </c>
       <c r="D24" s="15">
         <v>24.96</v>
@@ -15979,16 +16030,16 @@
         <v>29.951999999999998</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="162" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="75"/>
       <c r="B25" s="21" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C25" s="673" t="s">
-        <v>1112</v>
+        <v>1109</v>
+      </c>
+      <c r="C25" s="522" t="s">
+        <v>1110</v>
       </c>
       <c r="D25" s="23">
         <v>6.45</v>
@@ -15998,16 +16049,16 @@
         <v>7.74</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="75"/>
       <c r="B26" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D26" s="8">
         <v>8.1999999999999993</v>
@@ -16017,15 +16068,15 @@
         <v>9.8399999999999981</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D27" s="16">
         <v>40</v>
@@ -16035,7 +16086,7 @@
         <v>48</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16044,40 +16095,40 @@
       <c r="F28" s="162"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="577" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C29" s="675"/>
+      <c r="B29" s="640" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C29" s="695"/>
       <c r="D29" s="162"/>
       <c r="E29" s="162"/>
       <c r="F29" s="162"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="684" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C30" s="687" t="s">
-        <v>1088</v>
+      <c r="B30" s="696" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C30" s="525" t="s">
+        <v>1086</v>
       </c>
       <c r="D30" s="454"/>
-      <c r="E30" s="692"/>
+      <c r="E30" s="530"/>
       <c r="F30" s="454"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="75"/>
-      <c r="B31" s="685"/>
-      <c r="C31" s="688" t="s">
-        <v>1109</v>
+      <c r="B31" s="697"/>
+      <c r="C31" s="526" t="s">
+        <v>1107</v>
       </c>
       <c r="D31" s="454"/>
-      <c r="E31" s="692"/>
+      <c r="E31" s="530"/>
       <c r="F31" s="454"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="75"/>
-      <c r="B32" s="685"/>
-      <c r="C32" s="688" t="s">
-        <v>1089</v>
+      <c r="B32" s="697"/>
+      <c r="C32" s="526" t="s">
+        <v>1087</v>
       </c>
       <c r="D32" s="454"/>
       <c r="E32" s="454"/>
@@ -16085,150 +16136,150 @@
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="75"/>
-      <c r="B33" s="685"/>
-      <c r="C33" s="688" t="s">
-        <v>1110</v>
+      <c r="B33" s="697"/>
+      <c r="C33" s="526" t="s">
+        <v>1108</v>
       </c>
       <c r="D33" s="454"/>
       <c r="E33" s="454"/>
       <c r="F33" s="454"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B34" s="685"/>
-      <c r="C34" s="688" t="s">
-        <v>1090</v>
+      <c r="B34" s="697"/>
+      <c r="C34" s="526" t="s">
+        <v>1088</v>
       </c>
       <c r="D34" s="454"/>
       <c r="E34" s="454"/>
       <c r="F34" s="454"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="685"/>
-      <c r="C35" s="688" t="s">
-        <v>1091</v>
+      <c r="B35" s="697"/>
+      <c r="C35" s="526" t="s">
+        <v>1089</v>
       </c>
       <c r="D35" s="454"/>
       <c r="E35" s="454"/>
       <c r="F35" s="454"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="686"/>
-      <c r="C36" s="689" t="s">
-        <v>1092</v>
+      <c r="B36" s="698"/>
+      <c r="C36" s="527" t="s">
+        <v>1090</v>
       </c>
       <c r="D36" s="454"/>
       <c r="E36" s="454"/>
       <c r="F36" s="454"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="684" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C37" s="687" t="s">
+      <c r="B37" s="696" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C37" s="525" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D37" s="531"/>
+      <c r="E37" s="531"/>
+      <c r="F37" s="531"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="697"/>
+      <c r="C38" s="526" t="s">
         <v>1113</v>
       </c>
-      <c r="D37" s="693"/>
-      <c r="E37" s="693"/>
-      <c r="F37" s="693"/>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="685"/>
-      <c r="C38" s="688" t="s">
+      <c r="D38" s="531"/>
+      <c r="E38" s="531"/>
+      <c r="F38" s="531"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="697"/>
+      <c r="C39" s="526" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D39" s="531"/>
+      <c r="E39" s="531"/>
+      <c r="F39" s="531"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="697"/>
+      <c r="C40" s="526" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D40" s="531"/>
+      <c r="E40" s="531"/>
+      <c r="F40" s="531"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="697"/>
+      <c r="C41" s="526" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D41" s="531"/>
+      <c r="E41" s="531"/>
+      <c r="F41" s="531"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="697"/>
+      <c r="C42" s="526" t="s">
         <v>1115</v>
       </c>
-      <c r="D38" s="693"/>
-      <c r="E38" s="693"/>
-      <c r="F38" s="693"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="685"/>
-      <c r="C39" s="688" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D39" s="693"/>
-      <c r="E39" s="693"/>
-      <c r="F39" s="693"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B40" s="685"/>
-      <c r="C40" s="688" t="s">
+      <c r="D42" s="531"/>
+      <c r="E42" s="531"/>
+      <c r="F42" s="531"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="698"/>
+      <c r="C43" s="527" t="s">
         <v>1116</v>
       </c>
-      <c r="D40" s="693"/>
-      <c r="E40" s="693"/>
-      <c r="F40" s="693"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B41" s="685"/>
-      <c r="C41" s="688" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D41" s="693"/>
-      <c r="E41" s="693"/>
-      <c r="F41" s="693"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B42" s="685"/>
-      <c r="C42" s="688" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D42" s="693"/>
-      <c r="E42" s="693"/>
-      <c r="F42" s="693"/>
-    </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="686"/>
-      <c r="C43" s="689" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D43" s="693"/>
-      <c r="E43" s="693"/>
-      <c r="F43" s="693"/>
+      <c r="D43" s="531"/>
+      <c r="E43" s="531"/>
+      <c r="F43" s="531"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" s="483"/>
-      <c r="D44" s="692"/>
-      <c r="E44" s="694"/>
-      <c r="F44" s="695"/>
+      <c r="D44" s="530"/>
+      <c r="E44" s="532"/>
+      <c r="F44" s="533"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="692"/>
-      <c r="E45" s="692"/>
-      <c r="F45" s="695"/>
+      <c r="D45" s="530"/>
+      <c r="E45" s="530"/>
+      <c r="F45" s="533"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="692"/>
-      <c r="E46" s="692"/>
-      <c r="F46" s="695"/>
+      <c r="D46" s="530"/>
+      <c r="E46" s="530"/>
+      <c r="F46" s="533"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" s="483"/>
-      <c r="D47" s="692"/>
-      <c r="E47" s="692"/>
-      <c r="F47" s="695"/>
+      <c r="D47" s="530"/>
+      <c r="E47" s="530"/>
+      <c r="F47" s="533"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="692"/>
-      <c r="E48" s="692"/>
-      <c r="F48" s="695"/>
+      <c r="D48" s="530"/>
+      <c r="E48" s="530"/>
+      <c r="F48" s="533"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="692"/>
-      <c r="E49" s="692"/>
-      <c r="F49" s="695"/>
+      <c r="D49" s="530"/>
+      <c r="E49" s="530"/>
+      <c r="F49" s="533"/>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="692"/>
-      <c r="E50" s="692"/>
-      <c r="F50" s="695"/>
+      <c r="D50" s="530"/>
+      <c r="E50" s="530"/>
+      <c r="F50" s="533"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="692"/>
+      <c r="D51" s="530"/>
       <c r="E51" s="454"/>
       <c r="F51" s="454"/>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="692"/>
+      <c r="D52" s="530"/>
       <c r="E52" s="454"/>
       <c r="F52" s="454"/>
     </row>
@@ -16268,40 +16319,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:AF69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="87" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="24" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16313,43 +16364,40 @@
       </c>
     </row>
     <row r="2" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="654" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C2" s="656"/>
-      <c r="D2" s="655"/>
-      <c r="F2" s="654" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G2" s="655"/>
+      <c r="B2" s="709" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C2" s="710"/>
+      <c r="D2" s="711"/>
+      <c r="F2" s="709" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G2" s="711"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="V2" t="s">
-        <v>6</v>
-      </c>
       <c r="AB2" s="6">
         <v>5754</v>
       </c>
     </row>
     <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="660" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C3" s="661" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D3" s="662" t="s">
+      <c r="B3" s="509" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C3" s="510" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D3" s="511" t="s">
         <v>429</v>
       </c>
-      <c r="F3" s="696" t="s">
+      <c r="F3" s="534" t="s">
         <v>405</v>
       </c>
-      <c r="G3" s="697" t="s">
-        <v>1124</v>
+      <c r="G3" s="535" t="s">
+        <v>1122</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -16376,21 +16424,6 @@
         <v>7</v>
       </c>
       <c r="S3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" t="s">
         <v>3</v>
       </c>
       <c r="AA3" t="s">
@@ -16419,14 +16452,14 @@
       <c r="C4" s="23">
         <v>19</v>
       </c>
-      <c r="D4" s="657" t="s">
-        <v>1077</v>
+      <c r="D4" s="706" t="s">
+        <v>1075</v>
       </c>
       <c r="F4" s="118" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -16457,22 +16490,6 @@
         <f>R4/(PI()*P4^2*Q4)</f>
         <v>3.2722256299693677E-5</v>
       </c>
-      <c r="V4">
-        <v>40</v>
-      </c>
-      <c r="W4">
-        <v>40</v>
-      </c>
-      <c r="X4">
-        <v>80</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="Z4" s="1">
-        <f>Y4/(V4*W4*X4)</f>
-        <v>4.0624999999999998E-5</v>
-      </c>
       <c r="AB4">
         <v>6</v>
       </c>
@@ -16497,7 +16514,7 @@
       <c r="C5" s="8">
         <v>15.9</v>
       </c>
-      <c r="D5" s="658"/>
+      <c r="D5" s="707"/>
       <c r="F5" s="17"/>
       <c r="G5" s="119"/>
       <c r="J5">
@@ -16529,22 +16546,6 @@
         <f t="shared" ref="S5:S11" si="1">R5/(PI()*P5^2*Q5)</f>
         <v>1.3769314015980641E-5</v>
       </c>
-      <c r="V5">
-        <v>40</v>
-      </c>
-      <c r="W5">
-        <v>40</v>
-      </c>
-      <c r="X5">
-        <v>160</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>9.18</v>
-      </c>
-      <c r="Z5" s="1">
-        <f t="shared" ref="Z5:Z10" si="2">Y5/(V5*W5*X5)</f>
-        <v>3.5859374999999996E-5</v>
-      </c>
       <c r="AB5">
         <v>8</v>
       </c>
@@ -16558,7 +16559,7 @@
         <v>379.84</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF6" si="3">AE5/(AB5*AC5*AD5)</f>
+        <f t="shared" ref="AF5:AF6" si="2">AE5/(AB5*AC5*AD5)</f>
         <v>4.7479999999999999E-5</v>
       </c>
     </row>
@@ -16569,7 +16570,7 @@
       <c r="C6" s="8">
         <v>14</v>
       </c>
-      <c r="D6" s="658"/>
+      <c r="D6" s="707"/>
       <c r="F6" s="17"/>
       <c r="G6" s="119"/>
       <c r="J6">
@@ -16601,22 +16602,6 @@
         <f t="shared" si="1"/>
         <v>1.388474154036446E-5</v>
       </c>
-      <c r="V6">
-        <v>40</v>
-      </c>
-      <c r="W6">
-        <v>40</v>
-      </c>
-      <c r="X6">
-        <v>500</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>25.09</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" si="2"/>
-        <v>3.1362499999999997E-5</v>
-      </c>
       <c r="AB6">
         <v>10</v>
       </c>
@@ -16630,7 +16615,7 @@
         <v>473.8</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.7380000000000004E-5</v>
       </c>
     </row>
@@ -16641,7 +16626,7 @@
       <c r="C7" s="8">
         <v>11.5</v>
       </c>
-      <c r="D7" s="658"/>
+      <c r="D7" s="707"/>
       <c r="F7" s="17"/>
       <c r="G7" s="119"/>
       <c r="J7">
@@ -16673,22 +16658,6 @@
         <f t="shared" si="1"/>
         <v>1.2246535239484113E-5</v>
       </c>
-      <c r="V7">
-        <v>50</v>
-      </c>
-      <c r="W7">
-        <v>50</v>
-      </c>
-      <c r="X7">
-        <v>500</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>41.62</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="2"/>
-        <v>3.3296000000000001E-5</v>
-      </c>
       <c r="AE7" t="s">
         <v>8</v>
       </c>
@@ -16704,7 +16673,7 @@
       <c r="C8" s="8">
         <v>9.5</v>
       </c>
-      <c r="D8" s="658"/>
+      <c r="D8" s="707"/>
       <c r="F8" s="17"/>
       <c r="G8" s="119"/>
       <c r="J8">
@@ -16736,22 +16705,6 @@
         <f t="shared" si="1"/>
         <v>1.357790608252732E-5</v>
       </c>
-      <c r="V8">
-        <v>50</v>
-      </c>
-      <c r="W8">
-        <v>50</v>
-      </c>
-      <c r="X8">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>9.18</v>
-      </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="2"/>
-        <v>3.6720000000000001E-5</v>
-      </c>
     </row>
     <row r="9" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
@@ -16760,7 +16713,7 @@
       <c r="C9" s="16">
         <v>8.5</v>
       </c>
-      <c r="D9" s="659"/>
+      <c r="D9" s="708"/>
       <c r="F9" s="19"/>
       <c r="G9" s="120"/>
       <c r="J9">
@@ -16776,7 +16729,7 @@
         <v>20.56</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N9:N15" si="4">M9/(J9*K9*L9)</f>
+        <f t="shared" ref="N9:N15" si="3">M9/(J9*K9*L9)</f>
         <v>3.5694444444444444E-5</v>
       </c>
       <c r="P9">
@@ -16792,22 +16745,6 @@
         <f t="shared" si="1"/>
         <v>1.0225705093654274E-5</v>
       </c>
-      <c r="V9">
-        <v>60</v>
-      </c>
-      <c r="W9">
-        <v>60</v>
-      </c>
-      <c r="X9">
-        <v>500</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>57.83</v>
-      </c>
-      <c r="Z9" s="1">
-        <f t="shared" si="2"/>
-        <v>3.2127777777777776E-5</v>
-      </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="J10">
@@ -16823,7 +16760,7 @@
         <v>31.82</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.6159090909090908E-5</v>
       </c>
       <c r="P10">
@@ -16839,22 +16776,6 @@
         <f t="shared" si="1"/>
         <v>1.0867298457993479E-5</v>
       </c>
-      <c r="V10">
-        <v>60</v>
-      </c>
-      <c r="W10">
-        <v>60</v>
-      </c>
-      <c r="X10">
-        <v>995</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>119.95</v>
-      </c>
-      <c r="Z10" s="1">
-        <f t="shared" si="2"/>
-        <v>3.348687883863763E-5</v>
-      </c>
     </row>
     <row r="11" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J11">
@@ -16870,7 +16791,7 @@
         <v>15.91</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.1269654088050312E-5</v>
       </c>
       <c r="P11">
@@ -16886,21 +16807,14 @@
         <f t="shared" si="1"/>
         <v>1.2469259274773026E-5</v>
       </c>
-      <c r="Y11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="1">
-        <f>AVERAGE(Z4:Z10)</f>
-        <v>3.478250451663077E-5</v>
-      </c>
     </row>
     <row r="12" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="698" t="s">
+      <c r="B12" s="712" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="699"/>
-      <c r="D12" s="699"/>
-      <c r="E12" s="700"/>
+      <c r="C12" s="713"/>
+      <c r="D12" s="713"/>
+      <c r="E12" s="714"/>
       <c r="J12">
         <v>40</v>
       </c>
@@ -16914,7 +16828,7 @@
         <v>21.85</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.7934027777777779E-5</v>
       </c>
       <c r="R12" t="s">
@@ -16926,16 +16840,16 @@
       </c>
     </row>
     <row r="13" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="704" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C13" s="705" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D13" s="705" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E13" s="706" t="s">
+      <c r="B13" s="539" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C13" s="540" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D13" s="540" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E13" s="541" t="s">
         <v>486</v>
       </c>
       <c r="J13">
@@ -16951,22 +16865,22 @@
         <v>17.989999999999998</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5979999999999998E-5</v>
       </c>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>1128</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E14" s="703">
+      <c r="E14" s="538">
         <v>25.96</v>
       </c>
       <c r="J14">
@@ -16982,21 +16896,21 @@
         <v>53.98</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5986666666666665E-5</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E15" s="701">
+      <c r="E15" s="536">
         <v>28.95</v>
       </c>
       <c r="F15" s="5"/>
@@ -17013,7 +16927,7 @@
         <v>83.54</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.3416E-5</v>
       </c>
       <c r="V15" t="s">
@@ -17034,15 +16948,15 @@
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E16" s="701">
+      <c r="E16" s="536">
         <v>34.700000000000003</v>
       </c>
       <c r="F16" s="5"/>
@@ -17080,15 +16994,15 @@
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E17" s="701">
+        <v>1132</v>
+      </c>
+      <c r="E17" s="536">
         <v>48.94</v>
       </c>
       <c r="F17" s="5"/>
@@ -17121,15 +17035,15 @@
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E18" s="701">
+        <v>1132</v>
+      </c>
+      <c r="E18" s="536">
         <v>84.31</v>
       </c>
       <c r="F18" s="5"/>
@@ -17162,15 +17076,15 @@
     </row>
     <row r="19" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>1138</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E19" s="702">
+        <v>1132</v>
+      </c>
+      <c r="E19" s="537">
         <v>96.37</v>
       </c>
       <c r="F19" s="5"/>
@@ -17190,7 +17104,7 @@
         <v>4.8</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" ref="Z19:Z21" si="5">Y19/(PI()*(W19/2)^2*X19)</f>
+        <f t="shared" ref="Z19:Z21" si="4">Y19/(PI()*(W19/2)^2*X19)</f>
         <v>5.432488724203361E-5</v>
       </c>
       <c r="AB19">
@@ -17232,7 +17146,7 @@
         <v>6.36</v>
       </c>
       <c r="Z20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.9986441385898987E-5</v>
       </c>
       <c r="AB20">
@@ -17249,7 +17163,7 @@
         <v>4.8568301179170389E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="5"/>
       <c r="K21">
         <v>10</v>
@@ -17261,7 +17175,7 @@
         <v>5.14</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" ref="N21:N27" si="6">M21/(PI()*(K21/2)^2*L21)</f>
+        <f t="shared" ref="N21:N27" si="5">M21/(PI()*(K21/2)^2*L21)</f>
         <v>1.3088902519877471E-4</v>
       </c>
       <c r="W21">
@@ -17274,7 +17188,7 @@
         <v>8.4</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.4195091635435405E-5</v>
       </c>
       <c r="AB21">
@@ -17291,7 +17205,14 @@
         <v>6.5651414025406826E-5</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="715" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C22" s="716"/>
+      <c r="D22" s="716"/>
+      <c r="E22" s="716"/>
+      <c r="F22" s="717"/>
       <c r="K22">
         <v>20</v>
       </c>
@@ -17302,7 +17223,7 @@
         <v>8.35</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.3157750992693033E-5</v>
       </c>
       <c r="Y22" t="s">
@@ -17320,7 +17241,22 @@
         <v>5.9203016103705834E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="545" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C23" s="546" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D23" s="546" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E23" s="546" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F23" s="547" t="s">
+        <v>1146</v>
+      </c>
       <c r="K23">
         <v>20</v>
       </c>
@@ -17331,7 +17267,7 @@
         <v>17.13</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.5077256063922563E-5</v>
       </c>
       <c r="Y23" s="2"/>
@@ -17343,13 +17279,21 @@
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="707">
-        <f>E15/B25</f>
-        <v>46.32</v>
-      </c>
-      <c r="C24" s="708">
-        <f>B24*0.36*0.36</f>
-        <v>6.0030719999999995</v>
+      <c r="B24" s="21">
+        <v>40</v>
+      </c>
+      <c r="C24" s="24">
+        <v>40</v>
+      </c>
+      <c r="D24" s="24">
+        <v>80</v>
+      </c>
+      <c r="E24" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="F24" s="448">
+        <f>E24/(B24*C24*D24)</f>
+        <v>4.0624999999999998E-5</v>
       </c>
       <c r="K24">
         <v>25</v>
@@ -17361,7 +17305,7 @@
         <v>13.11</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.3414945380729545E-5</v>
       </c>
       <c r="AB24">
@@ -17380,9 +17324,21 @@
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>0.5*1.25</f>
-        <v>0.625</v>
+      <c r="B25" s="17">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>160</v>
+      </c>
+      <c r="E25" s="8">
+        <v>9.18</v>
+      </c>
+      <c r="F25" s="446">
+        <f t="shared" ref="F25:F30" si="6">E25/(B25*C25*D25)</f>
+        <v>3.5859374999999996E-5</v>
       </c>
       <c r="K25">
         <v>25</v>
@@ -17394,7 +17350,7 @@
         <v>26.99</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.5538966161457841E-5</v>
       </c>
       <c r="AB25">
@@ -17413,6 +17369,22 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>40</v>
+      </c>
+      <c r="C26" s="7">
+        <v>40</v>
+      </c>
+      <c r="D26" s="7">
+        <v>500</v>
+      </c>
+      <c r="E26" s="8">
+        <v>25.09</v>
+      </c>
+      <c r="F26" s="446">
+        <f t="shared" si="6"/>
+        <v>3.1362499999999997E-5</v>
+      </c>
       <c r="K26">
         <v>30</v>
       </c>
@@ -17423,13 +17395,29 @@
         <v>16.059999999999999</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5440504640992695E-5</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7">
+        <v>50</v>
+      </c>
+      <c r="D27" s="7">
+        <v>500</v>
+      </c>
+      <c r="E27" s="8">
+        <v>41.62</v>
+      </c>
+      <c r="F27" s="446">
+        <f t="shared" si="6"/>
+        <v>3.3296000000000001E-5</v>
+      </c>
       <c r="K27">
         <v>35</v>
       </c>
@@ -17440,13 +17428,29 @@
         <v>16.059999999999999</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.338486055256606E-5</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B28" s="17">
+        <v>50</v>
+      </c>
+      <c r="C28" s="7">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7">
+        <v>100</v>
+      </c>
+      <c r="E28" s="8">
+        <v>9.18</v>
+      </c>
+      <c r="F28" s="446">
+        <f t="shared" si="6"/>
+        <v>3.6720000000000001E-5</v>
+      </c>
       <c r="M28" t="s">
         <v>8</v>
       </c>
@@ -17458,9 +17462,41 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B29" s="17">
+        <v>60</v>
+      </c>
+      <c r="C29" s="7">
+        <v>60</v>
+      </c>
+      <c r="D29" s="7">
+        <v>500</v>
+      </c>
+      <c r="E29" s="8">
+        <v>57.83</v>
+      </c>
+      <c r="F29" s="446">
+        <f t="shared" si="6"/>
+        <v>3.2127777777777776E-5</v>
+      </c>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="19">
+        <v>60</v>
+      </c>
+      <c r="C30" s="11">
+        <v>60</v>
+      </c>
+      <c r="D30" s="11">
+        <v>995</v>
+      </c>
+      <c r="E30" s="543">
+        <v>119.95</v>
+      </c>
+      <c r="F30" s="544">
+        <f t="shared" si="6"/>
+        <v>3.348687883863763E-5</v>
+      </c>
       <c r="J30" s="3" t="s">
         <v>228</v>
       </c>
@@ -17468,7 +17504,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="545" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F31" s="548">
+        <f>AVERAGE(F24:F30)</f>
+        <v>3.478250451663077E-5</v>
+      </c>
+      <c r="G31" s="1"/>
       <c r="J31" t="s">
         <v>226</v>
       </c>
@@ -17483,6 +17527,7 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
       <c r="K32" t="s">
         <v>201</v>
       </c>
@@ -17508,7 +17553,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <f>F34*F31</f>
+        <v>9.1825811923905238</v>
+      </c>
       <c r="K33">
         <v>10</v>
       </c>
@@ -17536,7 +17585,11 @@
         <v>3.9937280386526271E-4</v>
       </c>
     </row>
-    <row r="34" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F34" s="2">
+        <f>0.000264*10^9</f>
+        <v>264000</v>
+      </c>
       <c r="K34">
         <v>16</v>
       </c>
@@ -17564,7 +17617,7 @@
         <v>2.6144515130824893E-4</v>
       </c>
     </row>
-    <row r="35" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K35">
         <v>20</v>
       </c>
@@ -17592,7 +17645,7 @@
         <v>2.4828171122335673E-4</v>
       </c>
     </row>
-    <row r="36" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K36">
         <v>40</v>
       </c>
@@ -17620,7 +17673,7 @@
         <v>2.1671598084346415E-4</v>
       </c>
     </row>
-    <row r="37" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K37">
         <v>50</v>
       </c>
@@ -17642,7 +17695,7 @@
         <v>2.8145391181008314E-4</v>
       </c>
     </row>
-    <row r="38" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K38">
         <v>60</v>
       </c>
@@ -17659,7 +17712,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:20" x14ac:dyDescent="0.25">
       <c r="K39">
         <v>80</v>
       </c>
@@ -17676,7 +17729,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:20" x14ac:dyDescent="0.25">
       <c r="M40" t="s">
         <v>8</v>
       </c>
@@ -17686,12 +17739,12 @@
       </c>
       <c r="T40" s="5"/>
     </row>
-    <row r="43" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:20" x14ac:dyDescent="0.25">
       <c r="J43" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="44" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:20" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
         <v>285</v>
       </c>
@@ -17699,7 +17752,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:20" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
         <v>4</v>
       </c>
@@ -17716,7 +17769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:20" x14ac:dyDescent="0.25">
       <c r="J46">
         <v>1.5</v>
       </c>
@@ -17734,7 +17787,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="48" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:20" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>287</v>
       </c>
@@ -18140,11 +18193,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D4:D9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
@@ -21837,23 +21891,23 @@
         <v>415</v>
       </c>
       <c r="D2" s="164" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E2" s="164" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F2" s="165" t="s">
         <v>417</v>
       </c>
       <c r="G2" s="165" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
         <v>30</v>
       </c>
-      <c r="C3" s="663">
+      <c r="C3" s="512">
         <v>4.3659999999999997</v>
       </c>
       <c r="D3" s="24">
@@ -21866,7 +21920,7 @@
         <f>2*PI()*(B3/2)/1000*D3</f>
         <v>1.6964600329384882</v>
       </c>
-      <c r="G3" s="667">
+      <c r="G3" s="516">
         <f>'Frame tubes'!D3*Summary!Z26+'Frame tubes'!D3*Summary!Z$30+Summary!Z$33</f>
         <v>633.84941928919204</v>
       </c>
@@ -21876,7 +21930,7 @@
       <c r="B4" s="17">
         <v>28</v>
       </c>
-      <c r="C4" s="664">
+      <c r="C4" s="513">
         <f>10.43+0.162</f>
         <v>10.592000000000001</v>
       </c>
@@ -21890,7 +21944,7 @@
         <f t="shared" ref="F4:F7" si="0">2*PI()*(B4/2)/1000*D4</f>
         <v>1.8472564803107983</v>
       </c>
-      <c r="G4" s="667">
+      <c r="G4" s="516">
         <f>'Frame tubes'!D4*Summary!Z$27+'Frame tubes'!D4*Summary!Z$30+Summary!Z$33*2</f>
         <v>521.85905182614169</v>
       </c>
@@ -21900,7 +21954,7 @@
       <c r="B5" s="17">
         <v>25</v>
       </c>
-      <c r="C5" s="664">
+      <c r="C5" s="513">
         <f>10.434+0.31</f>
         <v>10.744</v>
       </c>
@@ -21914,7 +21968,7 @@
         <f t="shared" si="0"/>
         <v>2.5918139392115793</v>
       </c>
-      <c r="G5" s="667">
+      <c r="G5" s="516">
         <f>'Frame tubes'!D5*Summary!Z$27+'Frame tubes'!D5*Summary!Z$30+Summary!Z$33*2</f>
         <v>804.53182755658827</v>
       </c>
@@ -21924,7 +21978,7 @@
       <c r="B6" s="17">
         <v>20</v>
       </c>
-      <c r="C6" s="664">
+      <c r="C6" s="513">
         <v>8.3160000000000007</v>
       </c>
       <c r="D6" s="7">
@@ -21937,7 +21991,7 @@
         <f t="shared" si="0"/>
         <v>1.5079644737231008</v>
       </c>
-      <c r="G6" s="667">
+      <c r="G6" s="516">
         <f>'Frame tubes'!D6*Summary!Z$27+'Frame tubes'!D6*Summary!Z$30+Summary!Z$33</f>
         <v>578.93639860982341</v>
       </c>
@@ -21947,7 +22001,7 @@
       <c r="B7" s="17">
         <v>15</v>
       </c>
-      <c r="C7" s="664">
+      <c r="C7" s="513">
         <v>6.101</v>
       </c>
       <c r="D7" s="7">
@@ -21960,14 +22014,14 @@
         <f t="shared" si="0"/>
         <v>0.7539822368615503</v>
       </c>
-      <c r="G7" s="667">
+      <c r="G7" s="516">
         <f>'Frame tubes'!D7*Summary!Z$27+'Frame tubes'!D7*Summary!Z$30+Summary!Z$33</f>
         <v>390.48788145619221</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="671" t="s">
+      <c r="B8" s="520" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="31"/>
@@ -21977,14 +22031,14 @@
         <f>SUM(F3:F7)</f>
         <v>8.3974771630455169</v>
       </c>
-      <c r="G8" s="670"/>
+      <c r="G8" s="519"/>
       <c r="H8" s="162"/>
       <c r="I8" s="162"/>
       <c r="J8" s="162"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E9" s="162"/>
-      <c r="F9" s="669"/>
+      <c r="F9" s="518"/>
       <c r="G9" s="162"/>
       <c r="H9" s="162"/>
       <c r="I9" s="162"/>
@@ -22024,10 +22078,10 @@
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="665" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C15" s="666">
+      <c r="B15" s="514" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C15" s="515">
         <f>SUM(G3:G7)</f>
         <v>2929.6645787379375</v>
       </c>
@@ -22052,7 +22106,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C17" s="123">
         <f>SUMPRODUCT(C3:C7,E3:E7)*1.2</f>
@@ -22084,7 +22138,7 @@
       <c r="B19" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="C19" s="668">
+      <c r="C19" s="517">
         <f>360</f>
         <v>360</v>
       </c>
@@ -22142,8 +22196,8 @@
   </sheetPr>
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:K31"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22168,137 +22222,137 @@
     <col min="18" max="16384" width="11.42578125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
-      <c r="B2" s="497" t="s">
+      <c r="B2" s="564" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="498"/>
-      <c r="F2" s="499"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="565"/>
+      <c r="D2" s="565"/>
+      <c r="E2" s="565"/>
+      <c r="F2" s="566"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" s="474" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="555" t="s">
+      <c r="C3" s="618" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="556"/>
-      <c r="E3" s="556"/>
-      <c r="F3" s="557"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="619"/>
+      <c r="E3" s="619"/>
+      <c r="F3" s="620"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="66"/>
       <c r="B4" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="558" t="s">
+      <c r="C4" s="621" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="559"/>
-      <c r="E4" s="559"/>
-      <c r="F4" s="560"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="622"/>
+      <c r="E4" s="622"/>
+      <c r="F4" s="623"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="66"/>
       <c r="B5" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="561" t="s">
+      <c r="C5" s="624" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="546"/>
-      <c r="E5" s="546"/>
-      <c r="F5" s="547"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="607"/>
+      <c r="E5" s="607"/>
+      <c r="F5" s="608"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="561" t="s">
+      <c r="C6" s="624" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="546"/>
-      <c r="E6" s="546"/>
-      <c r="F6" s="547"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="607"/>
+      <c r="E6" s="607"/>
+      <c r="F6" s="608"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="611" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="545" t="s">
+      <c r="C7" s="606" t="s">
         <v>387</v>
       </c>
-      <c r="D7" s="546"/>
-      <c r="E7" s="546"/>
-      <c r="F7" s="547"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="607"/>
+      <c r="E7" s="607"/>
+      <c r="F7" s="608"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
-      <c r="B8" s="551"/>
-      <c r="C8" s="545" t="s">
+      <c r="B8" s="612"/>
+      <c r="C8" s="606" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="553"/>
-      <c r="E8" s="553"/>
-      <c r="F8" s="554"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="614"/>
+      <c r="E8" s="614"/>
+      <c r="F8" s="615"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
-      <c r="B9" s="552"/>
-      <c r="C9" s="545" t="s">
+      <c r="B9" s="613"/>
+      <c r="C9" s="606" t="s">
         <v>389</v>
       </c>
-      <c r="D9" s="548"/>
-      <c r="E9" s="548"/>
-      <c r="F9" s="549"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="609"/>
+      <c r="E9" s="609"/>
+      <c r="F9" s="610"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="561" t="s">
+      <c r="C10" s="624" t="s">
         <v>379</v>
       </c>
-      <c r="D10" s="546"/>
-      <c r="E10" s="546"/>
-      <c r="F10" s="547"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="607"/>
+      <c r="E10" s="607"/>
+      <c r="F10" s="608"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="71" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="562" t="s">
+      <c r="C11" s="625" t="s">
         <v>365</v>
       </c>
-      <c r="D11" s="563"/>
-      <c r="E11" s="563"/>
-      <c r="F11" s="564"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="626"/>
+      <c r="E11" s="626"/>
+      <c r="F11" s="627"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
-      <c r="B13" s="497" t="s">
+      <c r="B13" s="564" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="498"/>
-      <c r="D13" s="498"/>
-      <c r="E13" s="498"/>
-      <c r="F13" s="498"/>
-      <c r="G13" s="498"/>
-      <c r="H13" s="499"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="565"/>
+      <c r="D13" s="565"/>
+      <c r="E13" s="565"/>
+      <c r="F13" s="565"/>
+      <c r="G13" s="565"/>
+      <c r="H13" s="566"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" s="475" t="s">
         <v>343</v>
@@ -22322,7 +22376,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="318" t="s">
         <v>395</v>
@@ -22350,8 +22404,12 @@
         <f>E15*Summary!$D$12/$C$29</f>
         <v>23.377610669343323</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I15" s="61">
+        <f>H15/60*5</f>
+        <v>1.9481342224452769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="66"/>
       <c r="B16" s="319" t="s">
         <v>394</v>
@@ -22453,10 +22511,10 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="66"/>
-      <c r="B21" s="497" t="s">
+      <c r="B21" s="564" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="499"/>
+      <c r="C21" s="566"/>
       <c r="E21" s="61"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22537,18 +22595,18 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="643" t="s">
+      <c r="B31" s="616" t="s">
         <v>346</v>
       </c>
-      <c r="C31" s="644"/>
-      <c r="D31" s="644"/>
-      <c r="E31" s="644"/>
-      <c r="F31" s="644"/>
-      <c r="G31" s="644"/>
-      <c r="H31" s="644"/>
-      <c r="I31" s="644"/>
-      <c r="J31" s="644"/>
-      <c r="K31" s="644"/>
+      <c r="C31" s="617"/>
+      <c r="D31" s="617"/>
+      <c r="E31" s="617"/>
+      <c r="F31" s="617"/>
+      <c r="G31" s="617"/>
+      <c r="H31" s="617"/>
+      <c r="I31" s="617"/>
+      <c r="J31" s="617"/>
+      <c r="K31" s="617"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="478"/>
@@ -22565,7 +22623,7 @@
         <v>183</v>
       </c>
       <c r="G32" s="479" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H32" s="479" t="s">
         <v>529</v>
@@ -22650,7 +22708,7 @@
         <v>94.71</v>
       </c>
       <c r="K34" s="358">
-        <f>SUM(C34:J34)</f>
+        <f t="shared" ref="K34:K41" si="2">SUM(C34:J34)</f>
         <v>8223.9850000000006</v>
       </c>
     </row>
@@ -22683,7 +22741,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="359">
-        <f>SUM(C35:J35)</f>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
     </row>
@@ -22696,11 +22754,11 @@
         <v>1262.8000000000002</v>
       </c>
       <c r="D36" s="332">
-        <f t="shared" ref="D36:E36" si="2">D35*D34</f>
+        <f t="shared" ref="D36:E36" si="3">D35*D34</f>
         <v>1262.8000000000002</v>
       </c>
       <c r="E36" s="332">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>552.47500000000002</v>
       </c>
       <c r="F36" s="332">
@@ -22724,7 +22782,7 @@
         <v>94.71</v>
       </c>
       <c r="K36" s="103">
-        <f>SUM(C36:J36)</f>
+        <f t="shared" si="2"/>
         <v>8934.3100000000013</v>
       </c>
     </row>
@@ -22753,7 +22811,7 @@
         <v>0.04</v>
       </c>
       <c r="K37" s="342">
-        <f>SUM(C37:J37)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -22779,7 +22837,7 @@
         <v>0.08</v>
       </c>
       <c r="K38" s="344">
-        <f>SUM(C38:J38)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -22800,7 +22858,7 @@
       </c>
       <c r="J39" s="341"/>
       <c r="K39" s="344">
-        <f>SUM(C39:J39)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -22819,7 +22877,7 @@
       <c r="I40" s="337"/>
       <c r="J40" s="341"/>
       <c r="K40" s="338">
-        <f>SUM(C40:J40)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -22828,23 +22886,23 @@
         <v>526</v>
       </c>
       <c r="C41" s="345">
-        <f t="shared" ref="C41:I41" si="3">$C$29*SUM(C37:C40)</f>
+        <f t="shared" ref="C41:F41" si="4">$C$29*SUM(C37:C40)</f>
         <v>1274.6387500000001</v>
       </c>
       <c r="D41" s="346">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1274.6387500000001</v>
       </c>
       <c r="E41" s="346">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>599.83000000000004</v>
       </c>
       <c r="F41" s="346">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2549.2775000000001</v>
       </c>
       <c r="G41" s="346">
-        <f t="shared" ref="G41" si="4">$C$29*SUM(G37:G40)</f>
+        <f t="shared" ref="G41" si="5">$C$29*SUM(G37:G40)</f>
         <v>749.78750000000002</v>
       </c>
       <c r="H41" s="346">
@@ -22860,7 +22918,7 @@
         <v>179.94900000000001</v>
       </c>
       <c r="K41" s="348">
-        <f>SUM(C41:J41)</f>
+        <f t="shared" si="2"/>
         <v>9747.2375000000011</v>
       </c>
     </row>
@@ -22873,44 +22931,44 @@
         <v>1</v>
       </c>
       <c r="D42" s="332" t="b">
-        <f t="shared" ref="D42:E42" si="5">IF(D36&lt;D41, TRUE, FALSE)</f>
+        <f t="shared" ref="D42:E42" si="6">IF(D36&lt;D41, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="E42" s="332" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F42" s="332" t="b">
-        <f>IF(F36&lt;F41, TRUE, FALSE)</f>
+        <f t="shared" ref="F42:K42" si="7">IF(F36&lt;F41, TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G42" s="332" t="b">
-        <f>IF(G36&lt;G41, TRUE, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H42" s="332" t="b">
-        <f>IF(H36&lt;H41, TRUE, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I42" s="332" t="b">
-        <f>IF(I36&lt;I41, TRUE, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J42" s="332" t="b">
-        <f>IF(J36&lt;J41, TRUE, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K42" s="333" t="b">
-        <f>IF(K36&lt;K41, TRUE, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="543" t="s">
+      <c r="B44" s="604" t="s">
         <v>345</v>
       </c>
-      <c r="C44" s="544"/>
+      <c r="C44" s="605"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="73" t="s">
@@ -23087,7 +23145,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
-      <c r="B3" s="565" t="s">
+      <c r="B3" s="628" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="168" t="s">
@@ -23109,7 +23167,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="75"/>
-      <c r="B4" s="566"/>
+      <c r="B4" s="629"/>
       <c r="C4" s="172" t="s">
         <v>484</v>
       </c>
@@ -23127,7 +23185,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
-      <c r="B5" s="566"/>
+      <c r="B5" s="629"/>
       <c r="C5" s="172" t="s">
         <v>485</v>
       </c>
@@ -23146,7 +23204,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
-      <c r="B6" s="567"/>
+      <c r="B6" s="630"/>
       <c r="C6" s="179" t="s">
         <v>486</v>
       </c>
@@ -23330,7 +23388,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
-      <c r="B3" s="568" t="s">
+      <c r="B3" s="631" t="s">
         <v>353</v>
       </c>
       <c r="C3" s="45" t="s">
@@ -23359,7 +23417,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75"/>
-      <c r="B4" s="570"/>
+      <c r="B4" s="633"/>
       <c r="C4" s="50" t="s">
         <v>61</v>
       </c>
@@ -23386,7 +23444,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
-      <c r="B5" s="568" t="s">
+      <c r="B5" s="631" t="s">
         <v>354</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -23415,7 +23473,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="75"/>
-      <c r="B6" s="569"/>
+      <c r="B6" s="632"/>
       <c r="C6" s="47" t="s">
         <v>117</v>
       </c>
@@ -23442,7 +23500,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="75"/>
-      <c r="B7" s="569"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="47" t="s">
         <v>120</v>
       </c>
@@ -23469,7 +23527,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
-      <c r="B8" s="569"/>
+      <c r="B8" s="632"/>
       <c r="C8" s="47" t="s">
         <v>133</v>
       </c>
@@ -23496,7 +23554,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="75"/>
-      <c r="B9" s="570"/>
+      <c r="B9" s="633"/>
       <c r="C9" s="50" t="s">
         <v>135</v>
       </c>
@@ -23523,7 +23581,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="75"/>
-      <c r="B10" s="571" t="s">
+      <c r="B10" s="634" t="s">
         <v>355</v>
       </c>
       <c r="C10" s="45" t="s">
@@ -23551,7 +23609,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="75"/>
-      <c r="B11" s="572"/>
+      <c r="B11" s="635"/>
       <c r="C11" s="47" t="s">
         <v>114</v>
       </c>
@@ -23578,7 +23636,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75"/>
-      <c r="B12" s="573"/>
+      <c r="B12" s="636"/>
       <c r="C12" s="50" t="s">
         <v>129</v>
       </c>
@@ -23605,7 +23663,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="75"/>
-      <c r="B13" s="571" t="s">
+      <c r="B13" s="634" t="s">
         <v>356</v>
       </c>
       <c r="C13" s="45" t="s">
@@ -23634,7 +23692,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
-      <c r="B14" s="572"/>
+      <c r="B14" s="635"/>
       <c r="C14" s="47" t="s">
         <v>124</v>
       </c>
@@ -23661,7 +23719,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="572"/>
+      <c r="B15" s="635"/>
       <c r="C15" s="47" t="s">
         <v>125</v>
       </c>
@@ -23688,7 +23746,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75"/>
-      <c r="B16" s="573"/>
+      <c r="B16" s="636"/>
       <c r="C16" s="50" t="s">
         <v>127</v>
       </c>
@@ -23745,7 +23803,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="75"/>
-      <c r="B18" s="571" t="s">
+      <c r="B18" s="634" t="s">
         <v>358</v>
       </c>
       <c r="C18" s="45" t="s">
@@ -23774,7 +23832,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="75"/>
-      <c r="B19" s="573"/>
+      <c r="B19" s="636"/>
       <c r="C19" s="50" t="s">
         <v>358</v>
       </c>
@@ -23832,7 +23890,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="75"/>
-      <c r="B23" s="568" t="s">
+      <c r="B23" s="631" t="s">
         <v>262</v>
       </c>
       <c r="C23" s="157" t="s">
@@ -23861,7 +23919,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="75"/>
-      <c r="B24" s="569"/>
+      <c r="B24" s="632"/>
       <c r="C24" s="13" t="s">
         <v>212</v>
       </c>
@@ -23888,7 +23946,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="75"/>
-      <c r="B25" s="569"/>
+      <c r="B25" s="632"/>
       <c r="C25" s="13" t="s">
         <v>362</v>
       </c>
@@ -23915,7 +23973,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="75"/>
-      <c r="B26" s="569"/>
+      <c r="B26" s="632"/>
       <c r="C26" s="13" t="s">
         <v>363</v>
       </c>
@@ -23942,7 +24000,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="75"/>
-      <c r="B27" s="569"/>
+      <c r="B27" s="632"/>
       <c r="C27" s="13" t="s">
         <v>213</v>
       </c>
@@ -23969,7 +24027,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="75"/>
-      <c r="B28" s="569"/>
+      <c r="B28" s="632"/>
       <c r="C28" s="13" t="s">
         <v>215</v>
       </c>
@@ -23996,7 +24054,7 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="75"/>
-      <c r="B29" s="570"/>
+      <c r="B29" s="633"/>
       <c r="C29" s="14" t="s">
         <v>217</v>
       </c>
@@ -24106,7 +24164,7 @@
     </row>
     <row r="3" spans="1:7" s="162" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
-      <c r="B3" s="568" t="s">
+      <c r="B3" s="631" t="s">
         <v>497</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -24126,7 +24184,7 @@
     </row>
     <row r="4" spans="1:7" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75"/>
-      <c r="B4" s="570"/>
+      <c r="B4" s="633"/>
       <c r="C4" s="13" t="s">
         <v>309</v>
       </c>
@@ -24144,7 +24202,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
-      <c r="B5" s="568" t="s">
+      <c r="B5" s="631" t="s">
         <v>496</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -24166,7 +24224,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="75"/>
-      <c r="B6" s="569"/>
+      <c r="B6" s="632"/>
       <c r="C6" s="13" t="s">
         <v>57</v>
       </c>
@@ -24186,7 +24244,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="75"/>
-      <c r="B7" s="569"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="13" t="s">
         <v>249</v>
       </c>
@@ -24204,7 +24262,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
-      <c r="B8" s="569"/>
+      <c r="B8" s="632"/>
       <c r="C8" s="13" t="s">
         <v>269</v>
       </c>
@@ -24222,7 +24280,7 @@
     </row>
     <row r="9" spans="1:7" s="162" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75"/>
-      <c r="B9" s="569"/>
+      <c r="B9" s="632"/>
       <c r="C9" s="17" t="s">
         <v>322</v>
       </c>
@@ -24243,7 +24301,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="75"/>
-      <c r="B10" s="570"/>
+      <c r="B10" s="633"/>
       <c r="C10" s="197" t="s">
         <v>495</v>
       </c>
@@ -24261,7 +24319,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="75"/>
-      <c r="B11" s="568" t="s">
+      <c r="B11" s="631" t="s">
         <v>359</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -24284,7 +24342,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75"/>
-      <c r="B12" s="570"/>
+      <c r="B12" s="633"/>
       <c r="C12" s="14" t="s">
         <v>162</v>
       </c>
@@ -24305,7 +24363,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="75"/>
-      <c r="B13" s="568" t="s">
+      <c r="B13" s="631" t="s">
         <v>360</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -24327,7 +24385,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
-      <c r="B14" s="569"/>
+      <c r="B14" s="632"/>
       <c r="C14" s="13" t="s">
         <v>255</v>
       </c>
@@ -24347,7 +24405,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="569"/>
+      <c r="B15" s="632"/>
       <c r="C15" s="13" t="s">
         <v>257</v>
       </c>
@@ -24367,7 +24425,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
-      <c r="B16" s="569"/>
+      <c r="B16" s="632"/>
       <c r="C16" s="13" t="s">
         <v>259</v>
       </c>
@@ -24387,7 +24445,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
-      <c r="B17" s="569"/>
+      <c r="B17" s="632"/>
       <c r="C17" s="13" t="s">
         <v>261</v>
       </c>
@@ -24407,7 +24465,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="75"/>
-      <c r="B18" s="569"/>
+      <c r="B18" s="632"/>
       <c r="C18" s="13" t="s">
         <v>263</v>
       </c>
@@ -24427,7 +24485,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="75"/>
-      <c r="B19" s="569"/>
+      <c r="B19" s="632"/>
       <c r="C19" s="13" t="s">
         <v>222</v>
       </c>
@@ -24447,7 +24505,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
-      <c r="B20" s="569"/>
+      <c r="B20" s="632"/>
       <c r="C20" s="13" t="s">
         <v>220</v>
       </c>
@@ -24467,7 +24525,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="75"/>
-      <c r="B21" s="570"/>
+      <c r="B21" s="633"/>
       <c r="C21" s="14" t="s">
         <v>251</v>
       </c>
@@ -24723,7 +24781,7 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="75"/>
-      <c r="B11" s="574" t="s">
+      <c r="B11" s="637" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -24742,7 +24800,7 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="75"/>
-      <c r="B12" s="575"/>
+      <c r="B12" s="638"/>
       <c r="C12" s="13" t="s">
         <v>90</v>
       </c>
@@ -24759,7 +24817,7 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="75"/>
-      <c r="B13" s="575"/>
+      <c r="B13" s="638"/>
       <c r="C13" s="13" t="s">
         <v>92</v>
       </c>
@@ -24776,7 +24834,7 @@
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
-      <c r="B14" s="576"/>
+      <c r="B14" s="639"/>
       <c r="C14" s="13" t="s">
         <v>94</v>
       </c>
@@ -24793,7 +24851,7 @@
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="574" t="s">
+      <c r="B15" s="637" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -24812,7 +24870,7 @@
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
-      <c r="B16" s="576"/>
+      <c r="B16" s="639"/>
       <c r="C16" s="29" t="s">
         <v>141</v>
       </c>
@@ -24923,7 +24981,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24940,13 +24998,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="577" t="s">
+      <c r="B2" s="640" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="578"/>
-      <c r="D2" s="578"/>
-      <c r="E2" s="578"/>
-      <c r="F2" s="579"/>
+      <c r="C2" s="641"/>
+      <c r="D2" s="641"/>
+      <c r="E2" s="641"/>
+      <c r="F2" s="642"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="297" t="s">
@@ -25041,124 +25099,124 @@
       <c r="C8" s="303" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="589" t="s">
+      <c r="D8" s="652" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="590"/>
+      <c r="E8" s="653"/>
       <c r="F8" s="304" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="583" t="s">
+      <c r="B9" s="646" t="s">
         <v>508</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="D9" s="591">
+      <c r="D9" s="654">
         <v>12000</v>
       </c>
-      <c r="E9" s="592"/>
-      <c r="F9" s="586" t="s">
+      <c r="E9" s="655"/>
+      <c r="F9" s="649" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="584"/>
+      <c r="B10" s="647"/>
       <c r="C10" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="D10" s="593" t="s">
+      <c r="D10" s="656" t="s">
         <v>509</v>
       </c>
-      <c r="E10" s="594"/>
-      <c r="F10" s="587"/>
+      <c r="E10" s="657"/>
+      <c r="F10" s="650"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="584"/>
+      <c r="B11" s="647"/>
       <c r="C11" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="D11" s="595">
+      <c r="D11" s="658">
         <v>22.4</v>
       </c>
-      <c r="E11" s="596"/>
-      <c r="F11" s="587"/>
+      <c r="E11" s="659"/>
+      <c r="F11" s="650"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="584"/>
+      <c r="B12" s="647"/>
       <c r="C12" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="D12" s="593" t="s">
+      <c r="D12" s="656" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="594"/>
-      <c r="F12" s="587"/>
+      <c r="E12" s="657"/>
+      <c r="F12" s="650"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="584"/>
+      <c r="B13" s="647"/>
       <c r="C13" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="593" t="s">
+      <c r="D13" s="656" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="594"/>
-      <c r="F13" s="587"/>
+      <c r="E13" s="657"/>
+      <c r="F13" s="650"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="584"/>
+      <c r="B14" s="647"/>
       <c r="C14" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="D14" s="593" t="s">
+      <c r="D14" s="656" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="594"/>
-      <c r="F14" s="587"/>
+      <c r="E14" s="657"/>
+      <c r="F14" s="650"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="584"/>
+      <c r="B15" s="647"/>
       <c r="C15" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="D15" s="593" t="s">
+      <c r="D15" s="656" t="s">
         <v>515</v>
       </c>
-      <c r="E15" s="594"/>
-      <c r="F15" s="587"/>
+      <c r="E15" s="657"/>
+      <c r="F15" s="650"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="585"/>
+      <c r="B16" s="648"/>
       <c r="C16" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="D16" s="597" t="s">
+      <c r="D16" s="660" t="s">
         <v>516</v>
       </c>
-      <c r="E16" s="598"/>
-      <c r="F16" s="588"/>
+      <c r="E16" s="661"/>
+      <c r="F16" s="651"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="577" t="s">
+      <c r="C18" s="640" t="s">
         <v>405</v>
       </c>
-      <c r="D18" s="578"/>
-      <c r="E18" s="578"/>
-      <c r="F18" s="579"/>
+      <c r="D18" s="641"/>
+      <c r="E18" s="641"/>
+      <c r="F18" s="642"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="580" t="s">
+      <c r="C19" s="643" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="581"/>
-      <c r="E19" s="581"/>
-      <c r="F19" s="582"/>
+      <c r="D19" s="644"/>
+      <c r="E19" s="644"/>
+      <c r="F19" s="645"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="100"/>
@@ -25386,13 +25444,13 @@
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75"/>
-      <c r="B2" s="577" t="s">
+      <c r="B2" s="640" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="578"/>
-      <c r="D2" s="578"/>
-      <c r="E2" s="578"/>
-      <c r="F2" s="579"/>
+      <c r="C2" s="641"/>
+      <c r="D2" s="641"/>
+      <c r="E2" s="641"/>
+      <c r="F2" s="642"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75"/>
@@ -25463,7 +25521,7 @@
         <f>D6*(1+Summary!$D$17)</f>
         <v>10000</v>
       </c>
-      <c r="F6" s="607" t="s">
+      <c r="F6" s="670" t="s">
         <v>539</v>
       </c>
     </row>
@@ -25483,7 +25541,7 @@
         <f>D7*(1+Summary!$D$17)</f>
         <v>1500</v>
       </c>
-      <c r="F7" s="607"/>
+      <c r="F7" s="670"/>
       <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25502,28 +25560,28 @@
         <f>D8*(1+Summary!$D$17)</f>
         <v>1500</v>
       </c>
-      <c r="F8" s="608"/>
+      <c r="F8" s="671"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="75"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="75"/>
-      <c r="C10" s="577" t="s">
+      <c r="C10" s="640" t="s">
         <v>528</v>
       </c>
-      <c r="D10" s="578"/>
-      <c r="E10" s="578"/>
-      <c r="F10" s="579"/>
+      <c r="D10" s="641"/>
+      <c r="E10" s="641"/>
+      <c r="F10" s="642"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="75"/>
-      <c r="C11" s="580" t="s">
+      <c r="C11" s="643" t="s">
         <v>542</v>
       </c>
-      <c r="D11" s="581"/>
-      <c r="E11" s="581"/>
-      <c r="F11" s="582"/>
+      <c r="D11" s="644"/>
+      <c r="E11" s="644"/>
+      <c r="F11" s="645"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75"/>
@@ -25531,10 +25589,10 @@
       <c r="D12" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="605" t="s">
+      <c r="E12" s="668" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="606"/>
+      <c r="F12" s="669"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="75"/>
@@ -25549,12 +25607,12 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="75"/>
-      <c r="C14" s="580" t="s">
+      <c r="C14" s="643" t="s">
         <v>544</v>
       </c>
-      <c r="D14" s="581"/>
-      <c r="E14" s="581"/>
-      <c r="F14" s="582"/>
+      <c r="D14" s="644"/>
+      <c r="E14" s="644"/>
+      <c r="F14" s="645"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75"/>
@@ -25562,10 +25620,10 @@
       <c r="D15" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="605" t="s">
+      <c r="E15" s="668" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="606"/>
+      <c r="F15" s="669"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75"/>
@@ -25575,10 +25633,10 @@
       <c r="D16" s="79">
         <v>5</v>
       </c>
-      <c r="E16" s="599" t="s">
+      <c r="E16" s="662" t="s">
         <v>539</v>
       </c>
-      <c r="F16" s="600"/>
+      <c r="F16" s="663"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75"/>
@@ -25588,17 +25646,17 @@
       <c r="D17" s="84">
         <v>1</v>
       </c>
-      <c r="E17" s="603"/>
-      <c r="F17" s="604"/>
+      <c r="E17" s="666"/>
+      <c r="F17" s="667"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="75"/>
-      <c r="C18" s="580" t="s">
+      <c r="C18" s="643" t="s">
         <v>545</v>
       </c>
-      <c r="D18" s="581"/>
-      <c r="E18" s="581"/>
-      <c r="F18" s="582"/>
+      <c r="D18" s="644"/>
+      <c r="E18" s="644"/>
+      <c r="F18" s="645"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="75"/>
@@ -25606,10 +25664,10 @@
       <c r="D19" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="605" t="s">
+      <c r="E19" s="668" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="606"/>
+      <c r="F19" s="669"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
@@ -25619,10 +25677,10 @@
       <c r="D20" s="102">
         <v>3</v>
       </c>
-      <c r="E20" s="599" t="s">
+      <c r="E20" s="662" t="s">
         <v>549</v>
       </c>
-      <c r="F20" s="600"/>
+      <c r="F20" s="663"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
@@ -25632,8 +25690,8 @@
       <c r="D21" s="372">
         <v>40</v>
       </c>
-      <c r="E21" s="601"/>
-      <c r="F21" s="602"/>
+      <c r="E21" s="664"/>
+      <c r="F21" s="665"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="75"/>
@@ -25643,8 +25701,8 @@
       <c r="D22" s="377">
         <v>10</v>
       </c>
-      <c r="E22" s="603"/>
-      <c r="F22" s="604"/>
+      <c r="E22" s="666"/>
+      <c r="F22" s="667"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="75"/>
@@ -25659,10 +25717,10 @@
       <c r="D24" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="605" t="s">
+      <c r="E24" s="668" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="606"/>
+      <c r="F24" s="669"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="75"/>
@@ -25673,10 +25731,10 @@
         <f>D20+D13*60+D16*60 +D22</f>
         <v>613</v>
       </c>
-      <c r="E25" s="599" t="s">
+      <c r="E25" s="662" t="s">
         <v>539</v>
       </c>
-      <c r="F25" s="600"/>
+      <c r="F25" s="663"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="75"/>
@@ -25687,8 +25745,8 @@
         <f>D20+D13*60+D17*60+D22</f>
         <v>373</v>
       </c>
-      <c r="E26" s="601"/>
-      <c r="F26" s="602"/>
+      <c r="E26" s="664"/>
+      <c r="F26" s="665"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
@@ -25699,8 +25757,8 @@
         <f>D25/3600*'Manpower &amp; time'!H15</f>
         <v>3.980687594529849</v>
       </c>
-      <c r="E27" s="601"/>
-      <c r="F27" s="602"/>
+      <c r="E27" s="664"/>
+      <c r="F27" s="665"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="75"/>
@@ -25711,8 +25769,8 @@
         <f>D26/3600*'Manpower &amp; time'!H15</f>
         <v>2.4221802165736275</v>
       </c>
-      <c r="E28" s="603"/>
-      <c r="F28" s="604"/>
+      <c r="E28" s="666"/>
+      <c r="F28" s="667"/>
     </row>
   </sheetData>
   <mergeCells count="13">
